--- a/Landings/LANDINGS_Rock_Lobster_(Jasus_lalandii).xlsx
+++ b/Landings/LANDINGS_Rock_Lobster_(Jasus_lalandii).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="909"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="909" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="00. META-Rights" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="140">
   <si>
     <t>Index</t>
   </si>
@@ -418,13 +418,49 @@
   </si>
   <si>
     <t>Owner Contact (Mobile)</t>
+  </si>
+  <si>
+    <t>-&gt; The Seasonal "Landings" Data for the Namibian Spiny Rock Lobster (SRL) Commercial Fishing Sector …</t>
+  </si>
+  <si>
+    <t>-&gt; The Seasonal "Quota Allocation" Data …</t>
+  </si>
+  <si>
+    <t>Season:</t>
+  </si>
+  <si>
+    <t>LANDED SOUTH</t>
+  </si>
+  <si>
+    <t>LANDED NORTH</t>
+  </si>
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>F/NORTH</t>
+  </si>
+  <si>
+    <t>TOTAL LANDED</t>
+  </si>
+  <si>
+    <t>REMAINING DIFFERENCE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>EXCEEDED QUOTA</t>
+  </si>
+  <si>
+    <t>QUOTA ALLOCATED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -467,8 +503,21 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000CC"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000CC"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +527,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -508,9 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,6 +588,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,14 +737,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
@@ -681,59 +753,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="17" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -744,7 +816,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -755,7 +827,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -766,7 +838,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -774,7 +846,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -782,7 +854,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -793,7 +865,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -801,7 +873,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -809,7 +881,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -817,7 +889,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -825,7 +897,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -833,7 +905,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -844,7 +916,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -852,7 +924,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -860,7 +932,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -868,7 +940,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -876,7 +948,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -884,7 +956,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -892,7 +964,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -900,7 +972,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -908,7 +980,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -916,7 +988,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -924,7 +996,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="16">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -932,7 +1004,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="16">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -940,7 +1012,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="16">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -948,7 +1020,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="16">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -956,7 +1028,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="16">
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -964,7 +1036,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="16">
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -972,7 +1044,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="16">
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1027,559 +1099,559 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5703125" style="12"/>
+    <col min="1" max="1" width="7.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>14.77</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>1980</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
         <v>1981</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>101</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>1984</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>105</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>107</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>109</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
         <v>1985</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>111</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>3.5</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>114</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>14.75</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>125</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>118</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>119</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <v>1987</v>
       </c>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="16">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>120</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <v>1994</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="16">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="16">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1617,7 +1689,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1629,87 +1701,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1746,39 +1818,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1787,24 +1861,145 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="38.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Landings/LANDINGS_Rock_Lobster_(Jasus_lalandii).xlsx
+++ b/Landings/LANDINGS_Rock_Lobster_(Jasus_lalandii).xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="198">
   <si>
     <t>Index</t>
   </si>
@@ -618,6 +618,21 @@
   <si>
     <t>Quota OVER-Catch (%):</t>
   </si>
+  <si>
+    <t>Landed FAR-NORTH</t>
+  </si>
+  <si>
+    <t>Left-over FAR-NORTH</t>
+  </si>
+  <si>
+    <t>Over-Catch FAR-NORTH</t>
+  </si>
+  <si>
+    <t>Quota FAR-NORTH (kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units: </t>
+  </si>
 </sst>
 </file>
 
@@ -627,7 +642,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -750,6 +765,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFFFF00"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -1124,7 +1146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1483,6 +1505,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1495,26 +1528,44 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1543,27 +1594,34 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="10" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1572,46 +1630,25 @@
     <xf numFmtId="37" fontId="10" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1619,11 +1656,72 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1664,6 +1762,224 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1750,53 +2066,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1805,214 +2074,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2045,8 +2106,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>169768</xdr:rowOff>
     </xdr:to>
@@ -2294,15 +2355,15 @@
       <c r="F3" s="77"/>
       <c r="G3" s="66">
         <f ca="1">IF(B3&lt;&gt;"", IFERROR(SEARCH(INDIRECT(CELL("address")), B3), 0), "")</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="67">
+        <v>0</v>
+      </c>
+      <c r="H3" s="67" t="str">
         <f ca="1">IF(B3&lt;&gt;"", IF(G3=0, "", COUNTIF($G$3:G3, "&gt;0")), "")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I3" s="68" t="str">
         <f ca="1">IFERROR(INDEX(B:B, MATCH(ROW(G1),H:H, 0)), "")</f>
-        <v>ALOE FISHING</v>
+        <v/>
       </c>
       <c r="J3" s="65"/>
       <c r="K3" s="65"/>
@@ -10137,7 +10198,7 @@
     <sortCondition ref="B2:B31"/>
   </sortState>
   <conditionalFormatting sqref="A3:A300">
-    <cfRule type="notContainsBlanks" dxfId="52" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18322,7 +18383,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A300">
-    <cfRule type="notContainsBlanks" dxfId="51" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18339,9 +18400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB301"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC50" sqref="AC50"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18358,6 +18419,7 @@
     <col min="10" max="10" width="32.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="11.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="28" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18375,12 +18437,24 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="M1" s="168" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" s="168" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="168" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="168" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" s="168" t="s">
+        <v>169</v>
+      </c>
+      <c r="R1" s="168" t="s">
+        <v>167</v>
+      </c>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -18427,8 +18501,12 @@
       <c r="L2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="111" t="s">
+        <v>166</v>
+      </c>
       <c r="O2" s="111"/>
       <c r="P2" s="111"/>
       <c r="Q2" s="111"/>
@@ -18452,8 +18530,9 @@
       <c r="B3" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="67" t="s">
-        <v>132</v>
+      <c r="C3" s="67" t="str">
+        <f>$N$1</f>
+        <v>Far-North</v>
       </c>
       <c r="D3" s="104"/>
       <c r="E3" s="67" t="s">
@@ -18502,8 +18581,9 @@
       <c r="B4" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>132</v>
+      <c r="C4" s="67" t="str">
+        <f t="shared" ref="C4:C5" si="3">$N$1</f>
+        <v>Far-North</v>
       </c>
       <c r="D4" s="104"/>
       <c r="E4" s="67" t="s">
@@ -18552,8 +18632,9 @@
       <c r="B5" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="67" t="s">
-        <v>132</v>
+      <c r="C5" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>Far-North</v>
       </c>
       <c r="D5" s="104"/>
       <c r="E5" s="67" t="s">
@@ -18602,8 +18683,9 @@
       <c r="B6" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="67" t="s">
-        <v>166</v>
+      <c r="C6" s="67" t="str">
+        <f>$O$1</f>
+        <v>North</v>
       </c>
       <c r="D6" s="105"/>
       <c r="E6" s="67" t="s">
@@ -18652,8 +18734,9 @@
       <c r="B7" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="67" t="s">
-        <v>166</v>
+      <c r="C7" s="67" t="str">
+        <f t="shared" ref="C7:C9" si="4">$O$1</f>
+        <v>North</v>
       </c>
       <c r="D7" s="105"/>
       <c r="E7" s="67" t="s">
@@ -18702,8 +18785,9 @@
       <c r="B8" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="67" t="s">
-        <v>166</v>
+      <c r="C8" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>North</v>
       </c>
       <c r="D8" s="105"/>
       <c r="E8" s="67" t="s">
@@ -18752,8 +18836,9 @@
       <c r="B9" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="67" t="s">
-        <v>166</v>
+      <c r="C9" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>North</v>
       </c>
       <c r="D9" s="105"/>
       <c r="E9" s="67" t="s">
@@ -18802,8 +18887,9 @@
       <c r="B10" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="67" t="s">
-        <v>167</v>
+      <c r="C10" s="67" t="str">
+        <f>$R$1</f>
+        <v>Sanctuary</v>
       </c>
       <c r="D10" s="105"/>
       <c r="E10" s="67" t="s">
@@ -18852,8 +18938,9 @@
       <c r="B11" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="67" t="s">
-        <v>168</v>
+      <c r="C11" s="67" t="str">
+        <f>$P$1</f>
+        <v>Central</v>
       </c>
       <c r="D11" s="105"/>
       <c r="E11" s="67" t="s">
@@ -18902,8 +18989,9 @@
       <c r="B12" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="67" t="s">
-        <v>168</v>
+      <c r="C12" s="67" t="str">
+        <f>$P$1</f>
+        <v>Central</v>
       </c>
       <c r="D12" s="105"/>
       <c r="E12" s="67" t="s">
@@ -18952,8 +19040,9 @@
       <c r="B13" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="67" t="s">
-        <v>167</v>
+      <c r="C13" s="67" t="str">
+        <f>$R$1</f>
+        <v>Sanctuary</v>
       </c>
       <c r="D13" s="105"/>
       <c r="E13" s="67" t="s">
@@ -19002,8 +19091,9 @@
       <c r="B14" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="67" t="s">
-        <v>169</v>
+      <c r="C14" s="67" t="str">
+        <f>$Q$1</f>
+        <v>South</v>
       </c>
       <c r="D14" s="105"/>
       <c r="E14" s="67" t="s">
@@ -19052,8 +19142,9 @@
       <c r="B15" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="67" t="s">
-        <v>169</v>
+      <c r="C15" s="67" t="str">
+        <f t="shared" ref="C15:C18" si="5">$Q$1</f>
+        <v>South</v>
       </c>
       <c r="D15" s="105"/>
       <c r="E15" s="67" t="s">
@@ -19102,8 +19193,9 @@
       <c r="B16" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="67" t="s">
-        <v>169</v>
+      <c r="C16" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>South</v>
       </c>
       <c r="D16" s="105"/>
       <c r="E16" s="67" t="s">
@@ -19152,8 +19244,9 @@
       <c r="B17" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="67" t="s">
-        <v>169</v>
+      <c r="C17" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>South</v>
       </c>
       <c r="D17" s="105"/>
       <c r="E17" s="67" t="s">
@@ -19202,8 +19295,9 @@
       <c r="B18" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>169</v>
+      <c r="C18" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>South</v>
       </c>
       <c r="D18" s="105"/>
       <c r="E18" s="67" t="s">
@@ -21198,7 +21292,7 @@
       <c r="F67" s="109"/>
       <c r="G67" s="102"/>
       <c r="H67" s="12" t="str">
-        <f t="shared" ref="H67:H130" ca="1" si="3">IF(B67&lt;&gt;"", IFERROR( SEARCH(INDIRECT(CELL("address")),B67), 0), "")</f>
+        <f t="shared" ref="H67:H130" ca="1" si="6">IF(B67&lt;&gt;"", IFERROR( SEARCH(INDIRECT(CELL("address")),B67), 0), "")</f>
         <v/>
       </c>
       <c r="I67" s="19" t="str">
@@ -21206,7 +21300,7 @@
         <v/>
       </c>
       <c r="J67" s="13" t="str">
-        <f t="shared" ref="J67:J130" ca="1" si="4">IFERROR(INDEX(B:B, MATCH(ROW(H65),I:I, 0)), "")</f>
+        <f t="shared" ref="J67:J130" ca="1" si="7">IFERROR(INDEX(B:B, MATCH(ROW(H65),I:I, 0)), "")</f>
         <v/>
       </c>
       <c r="M67" s="69"/>
@@ -21228,7 +21322,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="74" t="str">
-        <f t="shared" ref="A68:A131" si="5">IF(B68&lt;&gt;"", IF(A67="Index", 1, A67+1), "")</f>
+        <f t="shared" ref="A68:A131" si="8">IF(B68&lt;&gt;"", IF(A67="Index", 1, A67+1), "")</f>
         <v/>
       </c>
       <c r="B68" s="83"/>
@@ -21238,7 +21332,7 @@
       <c r="F68" s="109"/>
       <c r="G68" s="102"/>
       <c r="H68" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I68" s="19" t="str">
@@ -21246,7 +21340,7 @@
         <v/>
       </c>
       <c r="J68" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M68" s="69"/>
@@ -21268,7 +21362,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B69" s="83"/>
@@ -21278,7 +21372,7 @@
       <c r="F69" s="109"/>
       <c r="G69" s="102"/>
       <c r="H69" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I69" s="19" t="str">
@@ -21286,7 +21380,7 @@
         <v/>
       </c>
       <c r="J69" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M69" s="69"/>
@@ -21308,7 +21402,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B70" s="83"/>
@@ -21318,7 +21412,7 @@
       <c r="F70" s="109"/>
       <c r="G70" s="102"/>
       <c r="H70" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I70" s="19" t="str">
@@ -21326,7 +21420,7 @@
         <v/>
       </c>
       <c r="J70" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M70" s="69"/>
@@ -21348,7 +21442,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B71" s="83"/>
@@ -21358,7 +21452,7 @@
       <c r="F71" s="109"/>
       <c r="G71" s="102"/>
       <c r="H71" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I71" s="19" t="str">
@@ -21366,7 +21460,7 @@
         <v/>
       </c>
       <c r="J71" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M71" s="69"/>
@@ -21388,7 +21482,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B72" s="83"/>
@@ -21398,7 +21492,7 @@
       <c r="F72" s="109"/>
       <c r="G72" s="102"/>
       <c r="H72" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I72" s="19" t="str">
@@ -21406,7 +21500,7 @@
         <v/>
       </c>
       <c r="J72" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M72" s="69"/>
@@ -21428,7 +21522,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B73" s="83"/>
@@ -21438,7 +21532,7 @@
       <c r="F73" s="109"/>
       <c r="G73" s="102"/>
       <c r="H73" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I73" s="19" t="str">
@@ -21446,7 +21540,7 @@
         <v/>
       </c>
       <c r="J73" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M73" s="69"/>
@@ -21468,7 +21562,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B74" s="83"/>
@@ -21478,7 +21572,7 @@
       <c r="F74" s="109"/>
       <c r="G74" s="102"/>
       <c r="H74" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I74" s="19" t="str">
@@ -21486,7 +21580,7 @@
         <v/>
       </c>
       <c r="J74" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M74" s="69"/>
@@ -21508,7 +21602,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B75" s="83"/>
@@ -21518,7 +21612,7 @@
       <c r="F75" s="109"/>
       <c r="G75" s="102"/>
       <c r="H75" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I75" s="19" t="str">
@@ -21526,7 +21620,7 @@
         <v/>
       </c>
       <c r="J75" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M75" s="69"/>
@@ -21548,7 +21642,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B76" s="83"/>
@@ -21558,7 +21652,7 @@
       <c r="F76" s="109"/>
       <c r="G76" s="102"/>
       <c r="H76" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I76" s="19" t="str">
@@ -21566,7 +21660,7 @@
         <v/>
       </c>
       <c r="J76" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M76" s="69"/>
@@ -21588,7 +21682,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B77" s="83"/>
@@ -21598,7 +21692,7 @@
       <c r="F77" s="109"/>
       <c r="G77" s="102"/>
       <c r="H77" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I77" s="19" t="str">
@@ -21606,7 +21700,7 @@
         <v/>
       </c>
       <c r="J77" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M77" s="69"/>
@@ -21628,7 +21722,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B78" s="83"/>
@@ -21638,7 +21732,7 @@
       <c r="F78" s="109"/>
       <c r="G78" s="102"/>
       <c r="H78" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I78" s="19" t="str">
@@ -21646,7 +21740,7 @@
         <v/>
       </c>
       <c r="J78" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M78" s="69"/>
@@ -21668,7 +21762,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B79" s="83"/>
@@ -21678,7 +21772,7 @@
       <c r="F79" s="109"/>
       <c r="G79" s="102"/>
       <c r="H79" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I79" s="19" t="str">
@@ -21686,7 +21780,7 @@
         <v/>
       </c>
       <c r="J79" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M79" s="69"/>
@@ -21708,7 +21802,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B80" s="83"/>
@@ -21718,7 +21812,7 @@
       <c r="F80" s="109"/>
       <c r="G80" s="102"/>
       <c r="H80" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I80" s="19" t="str">
@@ -21726,7 +21820,7 @@
         <v/>
       </c>
       <c r="J80" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M80" s="69"/>
@@ -21748,7 +21842,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B81" s="83"/>
@@ -21758,7 +21852,7 @@
       <c r="F81" s="109"/>
       <c r="G81" s="102"/>
       <c r="H81" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I81" s="19" t="str">
@@ -21766,7 +21860,7 @@
         <v/>
       </c>
       <c r="J81" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M81" s="69"/>
@@ -21788,7 +21882,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B82" s="83"/>
@@ -21798,7 +21892,7 @@
       <c r="F82" s="109"/>
       <c r="G82" s="102"/>
       <c r="H82" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I82" s="19" t="str">
@@ -21806,7 +21900,7 @@
         <v/>
       </c>
       <c r="J82" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M82" s="69"/>
@@ -21828,7 +21922,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B83" s="83"/>
@@ -21838,7 +21932,7 @@
       <c r="F83" s="109"/>
       <c r="G83" s="102"/>
       <c r="H83" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I83" s="19" t="str">
@@ -21846,7 +21940,7 @@
         <v/>
       </c>
       <c r="J83" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M83" s="69"/>
@@ -21868,7 +21962,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B84" s="83"/>
@@ -21878,7 +21972,7 @@
       <c r="F84" s="109"/>
       <c r="G84" s="102"/>
       <c r="H84" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I84" s="19" t="str">
@@ -21886,7 +21980,7 @@
         <v/>
       </c>
       <c r="J84" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M84" s="69"/>
@@ -21908,7 +22002,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B85" s="83"/>
@@ -21918,7 +22012,7 @@
       <c r="F85" s="109"/>
       <c r="G85" s="102"/>
       <c r="H85" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I85" s="19" t="str">
@@ -21926,7 +22020,7 @@
         <v/>
       </c>
       <c r="J85" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M85" s="69"/>
@@ -21948,7 +22042,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B86" s="83"/>
@@ -21958,7 +22052,7 @@
       <c r="F86" s="109"/>
       <c r="G86" s="102"/>
       <c r="H86" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I86" s="19" t="str">
@@ -21966,7 +22060,7 @@
         <v/>
       </c>
       <c r="J86" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M86" s="69"/>
@@ -21988,7 +22082,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B87" s="83"/>
@@ -21998,7 +22092,7 @@
       <c r="F87" s="109"/>
       <c r="G87" s="102"/>
       <c r="H87" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I87" s="19" t="str">
@@ -22006,7 +22100,7 @@
         <v/>
       </c>
       <c r="J87" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M87" s="69"/>
@@ -22028,7 +22122,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B88" s="83"/>
@@ -22038,7 +22132,7 @@
       <c r="F88" s="109"/>
       <c r="G88" s="102"/>
       <c r="H88" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I88" s="19" t="str">
@@ -22046,7 +22140,7 @@
         <v/>
       </c>
       <c r="J88" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M88" s="69"/>
@@ -22068,7 +22162,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B89" s="83"/>
@@ -22078,7 +22172,7 @@
       <c r="F89" s="109"/>
       <c r="G89" s="102"/>
       <c r="H89" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I89" s="19" t="str">
@@ -22086,7 +22180,7 @@
         <v/>
       </c>
       <c r="J89" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M89" s="69"/>
@@ -22108,7 +22202,7 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B90" s="83"/>
@@ -22118,7 +22212,7 @@
       <c r="F90" s="109"/>
       <c r="G90" s="102"/>
       <c r="H90" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I90" s="19" t="str">
@@ -22126,7 +22220,7 @@
         <v/>
       </c>
       <c r="J90" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M90" s="69"/>
@@ -22148,7 +22242,7 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B91" s="83"/>
@@ -22158,7 +22252,7 @@
       <c r="F91" s="109"/>
       <c r="G91" s="102"/>
       <c r="H91" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I91" s="19" t="str">
@@ -22166,7 +22260,7 @@
         <v/>
       </c>
       <c r="J91" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M91" s="69"/>
@@ -22188,7 +22282,7 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B92" s="83"/>
@@ -22198,7 +22292,7 @@
       <c r="F92" s="109"/>
       <c r="G92" s="102"/>
       <c r="H92" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I92" s="19" t="str">
@@ -22206,7 +22300,7 @@
         <v/>
       </c>
       <c r="J92" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M92" s="69"/>
@@ -22228,7 +22322,7 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B93" s="83"/>
@@ -22238,7 +22332,7 @@
       <c r="F93" s="109"/>
       <c r="G93" s="102"/>
       <c r="H93" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I93" s="19" t="str">
@@ -22246,7 +22340,7 @@
         <v/>
       </c>
       <c r="J93" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M93" s="69"/>
@@ -22268,7 +22362,7 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B94" s="83"/>
@@ -22278,7 +22372,7 @@
       <c r="F94" s="109"/>
       <c r="G94" s="102"/>
       <c r="H94" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I94" s="19" t="str">
@@ -22286,7 +22380,7 @@
         <v/>
       </c>
       <c r="J94" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M94" s="69"/>
@@ -22308,7 +22402,7 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B95" s="83"/>
@@ -22318,7 +22412,7 @@
       <c r="F95" s="109"/>
       <c r="G95" s="102"/>
       <c r="H95" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I95" s="19" t="str">
@@ -22326,7 +22420,7 @@
         <v/>
       </c>
       <c r="J95" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M95" s="69"/>
@@ -22348,7 +22442,7 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B96" s="83"/>
@@ -22358,7 +22452,7 @@
       <c r="F96" s="109"/>
       <c r="G96" s="102"/>
       <c r="H96" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I96" s="19" t="str">
@@ -22366,7 +22460,7 @@
         <v/>
       </c>
       <c r="J96" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M96" s="69"/>
@@ -22388,7 +22482,7 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B97" s="83"/>
@@ -22398,7 +22492,7 @@
       <c r="F97" s="109"/>
       <c r="G97" s="102"/>
       <c r="H97" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I97" s="19" t="str">
@@ -22406,7 +22500,7 @@
         <v/>
       </c>
       <c r="J97" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M97" s="69"/>
@@ -22428,7 +22522,7 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B98" s="83"/>
@@ -22438,7 +22532,7 @@
       <c r="F98" s="109"/>
       <c r="G98" s="102"/>
       <c r="H98" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I98" s="19" t="str">
@@ -22446,7 +22540,7 @@
         <v/>
       </c>
       <c r="J98" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M98" s="69"/>
@@ -22468,7 +22562,7 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B99" s="83"/>
@@ -22478,7 +22572,7 @@
       <c r="F99" s="109"/>
       <c r="G99" s="102"/>
       <c r="H99" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I99" s="19" t="str">
@@ -22486,7 +22580,7 @@
         <v/>
       </c>
       <c r="J99" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M99" s="69"/>
@@ -22508,7 +22602,7 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B100" s="83"/>
@@ -22518,7 +22612,7 @@
       <c r="F100" s="109"/>
       <c r="G100" s="102"/>
       <c r="H100" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I100" s="19" t="str">
@@ -22526,7 +22620,7 @@
         <v/>
       </c>
       <c r="J100" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M100" s="69"/>
@@ -22548,7 +22642,7 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B101" s="83"/>
@@ -22558,7 +22652,7 @@
       <c r="F101" s="109"/>
       <c r="G101" s="102"/>
       <c r="H101" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I101" s="19" t="str">
@@ -22566,7 +22660,7 @@
         <v/>
       </c>
       <c r="J101" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M101" s="69"/>
@@ -22588,7 +22682,7 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B102" s="83"/>
@@ -22598,7 +22692,7 @@
       <c r="F102" s="109"/>
       <c r="G102" s="102"/>
       <c r="H102" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I102" s="19" t="str">
@@ -22606,7 +22700,7 @@
         <v/>
       </c>
       <c r="J102" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M102" s="69"/>
@@ -22628,7 +22722,7 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B103" s="83"/>
@@ -22638,7 +22732,7 @@
       <c r="F103" s="109"/>
       <c r="G103" s="102"/>
       <c r="H103" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I103" s="19" t="str">
@@ -22646,7 +22740,7 @@
         <v/>
       </c>
       <c r="J103" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M103" s="69"/>
@@ -22668,7 +22762,7 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B104" s="83"/>
@@ -22678,7 +22772,7 @@
       <c r="F104" s="109"/>
       <c r="G104" s="102"/>
       <c r="H104" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I104" s="19" t="str">
@@ -22686,7 +22780,7 @@
         <v/>
       </c>
       <c r="J104" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M104" s="69"/>
@@ -22708,7 +22802,7 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B105" s="83"/>
@@ -22718,7 +22812,7 @@
       <c r="F105" s="109"/>
       <c r="G105" s="102"/>
       <c r="H105" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I105" s="19" t="str">
@@ -22726,7 +22820,7 @@
         <v/>
       </c>
       <c r="J105" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M105" s="69"/>
@@ -22748,7 +22842,7 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B106" s="83"/>
@@ -22758,7 +22852,7 @@
       <c r="F106" s="109"/>
       <c r="G106" s="102"/>
       <c r="H106" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I106" s="19" t="str">
@@ -22766,7 +22860,7 @@
         <v/>
       </c>
       <c r="J106" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M106" s="69"/>
@@ -22788,7 +22882,7 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B107" s="83"/>
@@ -22798,7 +22892,7 @@
       <c r="F107" s="109"/>
       <c r="G107" s="102"/>
       <c r="H107" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I107" s="19" t="str">
@@ -22806,7 +22900,7 @@
         <v/>
       </c>
       <c r="J107" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M107" s="69"/>
@@ -22828,7 +22922,7 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B108" s="83"/>
@@ -22838,7 +22932,7 @@
       <c r="F108" s="109"/>
       <c r="G108" s="102"/>
       <c r="H108" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I108" s="19" t="str">
@@ -22846,7 +22940,7 @@
         <v/>
       </c>
       <c r="J108" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M108" s="69"/>
@@ -22868,7 +22962,7 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B109" s="83"/>
@@ -22878,7 +22972,7 @@
       <c r="F109" s="109"/>
       <c r="G109" s="102"/>
       <c r="H109" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I109" s="19" t="str">
@@ -22886,7 +22980,7 @@
         <v/>
       </c>
       <c r="J109" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M109" s="69"/>
@@ -22908,7 +23002,7 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B110" s="83"/>
@@ -22918,7 +23012,7 @@
       <c r="F110" s="109"/>
       <c r="G110" s="102"/>
       <c r="H110" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I110" s="19" t="str">
@@ -22926,7 +23020,7 @@
         <v/>
       </c>
       <c r="J110" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M110" s="69"/>
@@ -22948,7 +23042,7 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B111" s="83"/>
@@ -22958,7 +23052,7 @@
       <c r="F111" s="109"/>
       <c r="G111" s="102"/>
       <c r="H111" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I111" s="19" t="str">
@@ -22966,7 +23060,7 @@
         <v/>
       </c>
       <c r="J111" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M111" s="69"/>
@@ -22988,7 +23082,7 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B112" s="83"/>
@@ -22998,7 +23092,7 @@
       <c r="F112" s="109"/>
       <c r="G112" s="102"/>
       <c r="H112" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I112" s="19" t="str">
@@ -23006,7 +23100,7 @@
         <v/>
       </c>
       <c r="J112" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M112" s="69"/>
@@ -23028,7 +23122,7 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B113" s="83"/>
@@ -23038,7 +23132,7 @@
       <c r="F113" s="109"/>
       <c r="G113" s="102"/>
       <c r="H113" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I113" s="19" t="str">
@@ -23046,7 +23140,7 @@
         <v/>
       </c>
       <c r="J113" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M113" s="69"/>
@@ -23068,7 +23162,7 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B114" s="83"/>
@@ -23078,7 +23172,7 @@
       <c r="F114" s="109"/>
       <c r="G114" s="102"/>
       <c r="H114" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I114" s="19" t="str">
@@ -23086,7 +23180,7 @@
         <v/>
       </c>
       <c r="J114" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M114" s="69"/>
@@ -23108,7 +23202,7 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B115" s="83"/>
@@ -23118,7 +23212,7 @@
       <c r="F115" s="109"/>
       <c r="G115" s="102"/>
       <c r="H115" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I115" s="19" t="str">
@@ -23126,7 +23220,7 @@
         <v/>
       </c>
       <c r="J115" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M115" s="69"/>
@@ -23148,7 +23242,7 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B116" s="83"/>
@@ -23158,7 +23252,7 @@
       <c r="F116" s="109"/>
       <c r="G116" s="102"/>
       <c r="H116" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I116" s="19" t="str">
@@ -23166,7 +23260,7 @@
         <v/>
       </c>
       <c r="J116" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M116" s="69"/>
@@ -23188,7 +23282,7 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B117" s="83"/>
@@ -23198,7 +23292,7 @@
       <c r="F117" s="109"/>
       <c r="G117" s="102"/>
       <c r="H117" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I117" s="19" t="str">
@@ -23206,7 +23300,7 @@
         <v/>
       </c>
       <c r="J117" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M117" s="69"/>
@@ -23228,7 +23322,7 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B118" s="83"/>
@@ -23238,7 +23332,7 @@
       <c r="F118" s="109"/>
       <c r="G118" s="102"/>
       <c r="H118" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I118" s="19" t="str">
@@ -23246,7 +23340,7 @@
         <v/>
       </c>
       <c r="J118" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M118" s="69"/>
@@ -23268,7 +23362,7 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B119" s="83"/>
@@ -23278,7 +23372,7 @@
       <c r="F119" s="109"/>
       <c r="G119" s="102"/>
       <c r="H119" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I119" s="19" t="str">
@@ -23286,7 +23380,7 @@
         <v/>
       </c>
       <c r="J119" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M119" s="69"/>
@@ -23308,7 +23402,7 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B120" s="83"/>
@@ -23318,7 +23412,7 @@
       <c r="F120" s="109"/>
       <c r="G120" s="102"/>
       <c r="H120" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I120" s="19" t="str">
@@ -23326,7 +23420,7 @@
         <v/>
       </c>
       <c r="J120" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M120" s="69"/>
@@ -23348,7 +23442,7 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B121" s="83"/>
@@ -23358,7 +23452,7 @@
       <c r="F121" s="109"/>
       <c r="G121" s="102"/>
       <c r="H121" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I121" s="19" t="str">
@@ -23366,7 +23460,7 @@
         <v/>
       </c>
       <c r="J121" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M121" s="69"/>
@@ -23388,7 +23482,7 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B122" s="83"/>
@@ -23398,7 +23492,7 @@
       <c r="F122" s="109"/>
       <c r="G122" s="102"/>
       <c r="H122" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I122" s="19" t="str">
@@ -23406,7 +23500,7 @@
         <v/>
       </c>
       <c r="J122" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M122" s="69"/>
@@ -23428,7 +23522,7 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B123" s="83"/>
@@ -23438,7 +23532,7 @@
       <c r="F123" s="109"/>
       <c r="G123" s="102"/>
       <c r="H123" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I123" s="19" t="str">
@@ -23446,7 +23540,7 @@
         <v/>
       </c>
       <c r="J123" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M123" s="69"/>
@@ -23468,7 +23562,7 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B124" s="83"/>
@@ -23478,7 +23572,7 @@
       <c r="F124" s="109"/>
       <c r="G124" s="102"/>
       <c r="H124" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I124" s="19" t="str">
@@ -23486,7 +23580,7 @@
         <v/>
       </c>
       <c r="J124" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M124" s="69"/>
@@ -23508,7 +23602,7 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B125" s="83"/>
@@ -23518,7 +23612,7 @@
       <c r="F125" s="109"/>
       <c r="G125" s="102"/>
       <c r="H125" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I125" s="19" t="str">
@@ -23526,7 +23620,7 @@
         <v/>
       </c>
       <c r="J125" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M125" s="69"/>
@@ -23548,7 +23642,7 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B126" s="83"/>
@@ -23558,7 +23652,7 @@
       <c r="F126" s="109"/>
       <c r="G126" s="102"/>
       <c r="H126" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I126" s="19" t="str">
@@ -23566,7 +23660,7 @@
         <v/>
       </c>
       <c r="J126" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M126" s="69"/>
@@ -23588,7 +23682,7 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B127" s="83"/>
@@ -23598,7 +23692,7 @@
       <c r="F127" s="109"/>
       <c r="G127" s="102"/>
       <c r="H127" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I127" s="19" t="str">
@@ -23606,7 +23700,7 @@
         <v/>
       </c>
       <c r="J127" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M127" s="69"/>
@@ -23628,7 +23722,7 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B128" s="83"/>
@@ -23638,7 +23732,7 @@
       <c r="F128" s="109"/>
       <c r="G128" s="102"/>
       <c r="H128" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I128" s="19" t="str">
@@ -23646,7 +23740,7 @@
         <v/>
       </c>
       <c r="J128" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M128" s="69"/>
@@ -23668,7 +23762,7 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B129" s="83"/>
@@ -23678,7 +23772,7 @@
       <c r="F129" s="109"/>
       <c r="G129" s="102"/>
       <c r="H129" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I129" s="19" t="str">
@@ -23686,7 +23780,7 @@
         <v/>
       </c>
       <c r="J129" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M129" s="69"/>
@@ -23708,7 +23802,7 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B130" s="83"/>
@@ -23718,7 +23812,7 @@
       <c r="F130" s="109"/>
       <c r="G130" s="102"/>
       <c r="H130" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I130" s="19" t="str">
@@ -23726,7 +23820,7 @@
         <v/>
       </c>
       <c r="J130" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M130" s="69"/>
@@ -23748,7 +23842,7 @@
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B131" s="83"/>
@@ -23758,7 +23852,7 @@
       <c r="F131" s="109"/>
       <c r="G131" s="102"/>
       <c r="H131" s="12" t="str">
-        <f t="shared" ref="H131:H194" ca="1" si="6">IF(B131&lt;&gt;"", IFERROR( SEARCH(INDIRECT(CELL("address")),B131), 0), "")</f>
+        <f t="shared" ref="H131:H194" ca="1" si="9">IF(B131&lt;&gt;"", IFERROR( SEARCH(INDIRECT(CELL("address")),B131), 0), "")</f>
         <v/>
       </c>
       <c r="I131" s="19" t="str">
@@ -23766,7 +23860,7 @@
         <v/>
       </c>
       <c r="J131" s="13" t="str">
-        <f t="shared" ref="J131:J194" ca="1" si="7">IFERROR(INDEX(B:B, MATCH(ROW(H129),I:I, 0)), "")</f>
+        <f t="shared" ref="J131:J194" ca="1" si="10">IFERROR(INDEX(B:B, MATCH(ROW(H129),I:I, 0)), "")</f>
         <v/>
       </c>
       <c r="M131" s="69"/>
@@ -23788,7 +23882,7 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="74" t="str">
-        <f t="shared" ref="A132:A195" si="8">IF(B132&lt;&gt;"", IF(A131="Index", 1, A131+1), "")</f>
+        <f t="shared" ref="A132:A195" si="11">IF(B132&lt;&gt;"", IF(A131="Index", 1, A131+1), "")</f>
         <v/>
       </c>
       <c r="B132" s="83"/>
@@ -23798,7 +23892,7 @@
       <c r="F132" s="109"/>
       <c r="G132" s="102"/>
       <c r="H132" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I132" s="19" t="str">
@@ -23806,7 +23900,7 @@
         <v/>
       </c>
       <c r="J132" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M132" s="69"/>
@@ -23828,7 +23922,7 @@
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B133" s="83"/>
@@ -23838,7 +23932,7 @@
       <c r="F133" s="109"/>
       <c r="G133" s="102"/>
       <c r="H133" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I133" s="19" t="str">
@@ -23846,7 +23940,7 @@
         <v/>
       </c>
       <c r="J133" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M133" s="69"/>
@@ -23868,7 +23962,7 @@
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B134" s="83"/>
@@ -23878,7 +23972,7 @@
       <c r="F134" s="109"/>
       <c r="G134" s="102"/>
       <c r="H134" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I134" s="19" t="str">
@@ -23886,7 +23980,7 @@
         <v/>
       </c>
       <c r="J134" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M134" s="69"/>
@@ -23908,7 +24002,7 @@
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B135" s="83"/>
@@ -23918,7 +24012,7 @@
       <c r="F135" s="109"/>
       <c r="G135" s="102"/>
       <c r="H135" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I135" s="19" t="str">
@@ -23926,7 +24020,7 @@
         <v/>
       </c>
       <c r="J135" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M135" s="69"/>
@@ -23948,7 +24042,7 @@
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B136" s="83"/>
@@ -23958,7 +24052,7 @@
       <c r="F136" s="109"/>
       <c r="G136" s="102"/>
       <c r="H136" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I136" s="19" t="str">
@@ -23966,7 +24060,7 @@
         <v/>
       </c>
       <c r="J136" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M136" s="69"/>
@@ -23988,7 +24082,7 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B137" s="83"/>
@@ -23998,7 +24092,7 @@
       <c r="F137" s="109"/>
       <c r="G137" s="102"/>
       <c r="H137" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I137" s="19" t="str">
@@ -24006,7 +24100,7 @@
         <v/>
       </c>
       <c r="J137" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M137" s="69"/>
@@ -24028,7 +24122,7 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B138" s="83"/>
@@ -24038,7 +24132,7 @@
       <c r="F138" s="109"/>
       <c r="G138" s="102"/>
       <c r="H138" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I138" s="19" t="str">
@@ -24046,7 +24140,7 @@
         <v/>
       </c>
       <c r="J138" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M138" s="69"/>
@@ -24068,7 +24162,7 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B139" s="83"/>
@@ -24078,7 +24172,7 @@
       <c r="F139" s="109"/>
       <c r="G139" s="102"/>
       <c r="H139" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I139" s="19" t="str">
@@ -24086,7 +24180,7 @@
         <v/>
       </c>
       <c r="J139" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M139" s="69"/>
@@ -24108,7 +24202,7 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B140" s="83"/>
@@ -24118,7 +24212,7 @@
       <c r="F140" s="109"/>
       <c r="G140" s="102"/>
       <c r="H140" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I140" s="19" t="str">
@@ -24126,7 +24220,7 @@
         <v/>
       </c>
       <c r="J140" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M140" s="69"/>
@@ -24148,7 +24242,7 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B141" s="83"/>
@@ -24158,7 +24252,7 @@
       <c r="F141" s="109"/>
       <c r="G141" s="102"/>
       <c r="H141" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I141" s="19" t="str">
@@ -24166,7 +24260,7 @@
         <v/>
       </c>
       <c r="J141" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M141" s="69"/>
@@ -24188,7 +24282,7 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B142" s="83"/>
@@ -24198,7 +24292,7 @@
       <c r="F142" s="109"/>
       <c r="G142" s="102"/>
       <c r="H142" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I142" s="19" t="str">
@@ -24206,7 +24300,7 @@
         <v/>
       </c>
       <c r="J142" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M142" s="69"/>
@@ -24228,7 +24322,7 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B143" s="83"/>
@@ -24238,7 +24332,7 @@
       <c r="F143" s="109"/>
       <c r="G143" s="102"/>
       <c r="H143" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I143" s="19" t="str">
@@ -24246,7 +24340,7 @@
         <v/>
       </c>
       <c r="J143" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M143" s="69"/>
@@ -24268,7 +24362,7 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B144" s="83"/>
@@ -24278,7 +24372,7 @@
       <c r="F144" s="109"/>
       <c r="G144" s="102"/>
       <c r="H144" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I144" s="19" t="str">
@@ -24286,7 +24380,7 @@
         <v/>
       </c>
       <c r="J144" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M144" s="69"/>
@@ -24308,7 +24402,7 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B145" s="83"/>
@@ -24318,7 +24412,7 @@
       <c r="F145" s="109"/>
       <c r="G145" s="102"/>
       <c r="H145" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I145" s="19" t="str">
@@ -24326,7 +24420,7 @@
         <v/>
       </c>
       <c r="J145" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M145" s="69"/>
@@ -24348,7 +24442,7 @@
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B146" s="83"/>
@@ -24358,7 +24452,7 @@
       <c r="F146" s="109"/>
       <c r="G146" s="102"/>
       <c r="H146" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I146" s="19" t="str">
@@ -24366,7 +24460,7 @@
         <v/>
       </c>
       <c r="J146" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M146" s="69"/>
@@ -24388,7 +24482,7 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B147" s="83"/>
@@ -24398,7 +24492,7 @@
       <c r="F147" s="109"/>
       <c r="G147" s="102"/>
       <c r="H147" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I147" s="19" t="str">
@@ -24406,7 +24500,7 @@
         <v/>
       </c>
       <c r="J147" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M147" s="69"/>
@@ -24428,7 +24522,7 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B148" s="83"/>
@@ -24438,7 +24532,7 @@
       <c r="F148" s="109"/>
       <c r="G148" s="102"/>
       <c r="H148" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I148" s="19" t="str">
@@ -24446,7 +24540,7 @@
         <v/>
       </c>
       <c r="J148" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M148" s="69"/>
@@ -24468,7 +24562,7 @@
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B149" s="83"/>
@@ -24478,7 +24572,7 @@
       <c r="F149" s="109"/>
       <c r="G149" s="102"/>
       <c r="H149" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I149" s="19" t="str">
@@ -24486,7 +24580,7 @@
         <v/>
       </c>
       <c r="J149" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M149" s="69"/>
@@ -24508,7 +24602,7 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B150" s="83"/>
@@ -24518,7 +24612,7 @@
       <c r="F150" s="109"/>
       <c r="G150" s="102"/>
       <c r="H150" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I150" s="19" t="str">
@@ -24526,7 +24620,7 @@
         <v/>
       </c>
       <c r="J150" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M150" s="69"/>
@@ -24548,7 +24642,7 @@
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B151" s="83"/>
@@ -24558,7 +24652,7 @@
       <c r="F151" s="109"/>
       <c r="G151" s="102"/>
       <c r="H151" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I151" s="19" t="str">
@@ -24566,7 +24660,7 @@
         <v/>
       </c>
       <c r="J151" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M151" s="69"/>
@@ -24588,7 +24682,7 @@
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B152" s="83"/>
@@ -24598,7 +24692,7 @@
       <c r="F152" s="109"/>
       <c r="G152" s="102"/>
       <c r="H152" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I152" s="19" t="str">
@@ -24606,7 +24700,7 @@
         <v/>
       </c>
       <c r="J152" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M152" s="69"/>
@@ -24628,7 +24722,7 @@
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B153" s="83"/>
@@ -24638,7 +24732,7 @@
       <c r="F153" s="109"/>
       <c r="G153" s="102"/>
       <c r="H153" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I153" s="19" t="str">
@@ -24646,7 +24740,7 @@
         <v/>
       </c>
       <c r="J153" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M153" s="69"/>
@@ -24668,7 +24762,7 @@
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B154" s="83"/>
@@ -24678,7 +24772,7 @@
       <c r="F154" s="109"/>
       <c r="G154" s="102"/>
       <c r="H154" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I154" s="19" t="str">
@@ -24686,7 +24780,7 @@
         <v/>
       </c>
       <c r="J154" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M154" s="69"/>
@@ -24708,7 +24802,7 @@
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B155" s="83"/>
@@ -24718,7 +24812,7 @@
       <c r="F155" s="109"/>
       <c r="G155" s="102"/>
       <c r="H155" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I155" s="19" t="str">
@@ -24726,7 +24820,7 @@
         <v/>
       </c>
       <c r="J155" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M155" s="69"/>
@@ -24748,7 +24842,7 @@
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B156" s="83"/>
@@ -24758,7 +24852,7 @@
       <c r="F156" s="109"/>
       <c r="G156" s="102"/>
       <c r="H156" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I156" s="19" t="str">
@@ -24766,7 +24860,7 @@
         <v/>
       </c>
       <c r="J156" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M156" s="69"/>
@@ -24788,7 +24882,7 @@
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B157" s="83"/>
@@ -24798,7 +24892,7 @@
       <c r="F157" s="109"/>
       <c r="G157" s="102"/>
       <c r="H157" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I157" s="19" t="str">
@@ -24806,7 +24900,7 @@
         <v/>
       </c>
       <c r="J157" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M157" s="69"/>
@@ -24828,7 +24922,7 @@
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B158" s="83"/>
@@ -24838,7 +24932,7 @@
       <c r="F158" s="109"/>
       <c r="G158" s="102"/>
       <c r="H158" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I158" s="19" t="str">
@@ -24846,7 +24940,7 @@
         <v/>
       </c>
       <c r="J158" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M158" s="69"/>
@@ -24868,7 +24962,7 @@
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B159" s="83"/>
@@ -24878,7 +24972,7 @@
       <c r="F159" s="109"/>
       <c r="G159" s="102"/>
       <c r="H159" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I159" s="19" t="str">
@@ -24886,7 +24980,7 @@
         <v/>
       </c>
       <c r="J159" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M159" s="69"/>
@@ -24908,7 +25002,7 @@
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B160" s="83"/>
@@ -24918,7 +25012,7 @@
       <c r="F160" s="109"/>
       <c r="G160" s="102"/>
       <c r="H160" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I160" s="19" t="str">
@@ -24926,7 +25020,7 @@
         <v/>
       </c>
       <c r="J160" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M160" s="69"/>
@@ -24948,7 +25042,7 @@
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B161" s="83"/>
@@ -24958,7 +25052,7 @@
       <c r="F161" s="109"/>
       <c r="G161" s="102"/>
       <c r="H161" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I161" s="19" t="str">
@@ -24966,7 +25060,7 @@
         <v/>
       </c>
       <c r="J161" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M161" s="69"/>
@@ -24988,7 +25082,7 @@
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B162" s="83"/>
@@ -24998,7 +25092,7 @@
       <c r="F162" s="109"/>
       <c r="G162" s="102"/>
       <c r="H162" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I162" s="19" t="str">
@@ -25006,7 +25100,7 @@
         <v/>
       </c>
       <c r="J162" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M162" s="69"/>
@@ -25028,7 +25122,7 @@
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B163" s="83"/>
@@ -25038,7 +25132,7 @@
       <c r="F163" s="109"/>
       <c r="G163" s="102"/>
       <c r="H163" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I163" s="19" t="str">
@@ -25046,7 +25140,7 @@
         <v/>
       </c>
       <c r="J163" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M163" s="69"/>
@@ -25068,7 +25162,7 @@
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B164" s="83"/>
@@ -25078,7 +25172,7 @@
       <c r="F164" s="109"/>
       <c r="G164" s="102"/>
       <c r="H164" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I164" s="19" t="str">
@@ -25086,7 +25180,7 @@
         <v/>
       </c>
       <c r="J164" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M164" s="69"/>
@@ -25108,7 +25202,7 @@
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B165" s="83"/>
@@ -25118,7 +25212,7 @@
       <c r="F165" s="109"/>
       <c r="G165" s="102"/>
       <c r="H165" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I165" s="19" t="str">
@@ -25126,7 +25220,7 @@
         <v/>
       </c>
       <c r="J165" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M165" s="69"/>
@@ -25148,7 +25242,7 @@
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B166" s="83"/>
@@ -25158,7 +25252,7 @@
       <c r="F166" s="109"/>
       <c r="G166" s="102"/>
       <c r="H166" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I166" s="19" t="str">
@@ -25166,7 +25260,7 @@
         <v/>
       </c>
       <c r="J166" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M166" s="69"/>
@@ -25188,7 +25282,7 @@
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B167" s="83"/>
@@ -25198,7 +25292,7 @@
       <c r="F167" s="109"/>
       <c r="G167" s="102"/>
       <c r="H167" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I167" s="19" t="str">
@@ -25206,7 +25300,7 @@
         <v/>
       </c>
       <c r="J167" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M167" s="69"/>
@@ -25228,7 +25322,7 @@
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B168" s="83"/>
@@ -25238,7 +25332,7 @@
       <c r="F168" s="109"/>
       <c r="G168" s="102"/>
       <c r="H168" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I168" s="19" t="str">
@@ -25246,7 +25340,7 @@
         <v/>
       </c>
       <c r="J168" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M168" s="69"/>
@@ -25268,7 +25362,7 @@
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B169" s="83"/>
@@ -25278,7 +25372,7 @@
       <c r="F169" s="109"/>
       <c r="G169" s="102"/>
       <c r="H169" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I169" s="19" t="str">
@@ -25286,7 +25380,7 @@
         <v/>
       </c>
       <c r="J169" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M169" s="69"/>
@@ -25308,7 +25402,7 @@
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B170" s="83"/>
@@ -25318,7 +25412,7 @@
       <c r="F170" s="109"/>
       <c r="G170" s="102"/>
       <c r="H170" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I170" s="19" t="str">
@@ -25326,7 +25420,7 @@
         <v/>
       </c>
       <c r="J170" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M170" s="69"/>
@@ -25348,7 +25442,7 @@
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B171" s="83"/>
@@ -25358,7 +25452,7 @@
       <c r="F171" s="109"/>
       <c r="G171" s="102"/>
       <c r="H171" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I171" s="19" t="str">
@@ -25366,7 +25460,7 @@
         <v/>
       </c>
       <c r="J171" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M171" s="69"/>
@@ -25388,7 +25482,7 @@
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B172" s="83"/>
@@ -25398,7 +25492,7 @@
       <c r="F172" s="109"/>
       <c r="G172" s="102"/>
       <c r="H172" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I172" s="19" t="str">
@@ -25406,7 +25500,7 @@
         <v/>
       </c>
       <c r="J172" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M172" s="69"/>
@@ -25428,7 +25522,7 @@
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B173" s="83"/>
@@ -25438,7 +25532,7 @@
       <c r="F173" s="109"/>
       <c r="G173" s="102"/>
       <c r="H173" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I173" s="19" t="str">
@@ -25446,7 +25540,7 @@
         <v/>
       </c>
       <c r="J173" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M173" s="69"/>
@@ -25468,7 +25562,7 @@
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B174" s="83"/>
@@ -25478,7 +25572,7 @@
       <c r="F174" s="109"/>
       <c r="G174" s="102"/>
       <c r="H174" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I174" s="19" t="str">
@@ -25486,7 +25580,7 @@
         <v/>
       </c>
       <c r="J174" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M174" s="69"/>
@@ -25508,7 +25602,7 @@
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B175" s="83"/>
@@ -25518,7 +25612,7 @@
       <c r="F175" s="109"/>
       <c r="G175" s="102"/>
       <c r="H175" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I175" s="19" t="str">
@@ -25526,7 +25620,7 @@
         <v/>
       </c>
       <c r="J175" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M175" s="69"/>
@@ -25548,7 +25642,7 @@
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B176" s="83"/>
@@ -25558,7 +25652,7 @@
       <c r="F176" s="109"/>
       <c r="G176" s="102"/>
       <c r="H176" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I176" s="19" t="str">
@@ -25566,7 +25660,7 @@
         <v/>
       </c>
       <c r="J176" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M176" s="69"/>
@@ -25588,7 +25682,7 @@
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B177" s="83"/>
@@ -25598,7 +25692,7 @@
       <c r="F177" s="109"/>
       <c r="G177" s="102"/>
       <c r="H177" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I177" s="19" t="str">
@@ -25606,7 +25700,7 @@
         <v/>
       </c>
       <c r="J177" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M177" s="69"/>
@@ -25628,7 +25722,7 @@
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B178" s="83"/>
@@ -25638,7 +25732,7 @@
       <c r="F178" s="109"/>
       <c r="G178" s="102"/>
       <c r="H178" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I178" s="19" t="str">
@@ -25646,7 +25740,7 @@
         <v/>
       </c>
       <c r="J178" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M178" s="69"/>
@@ -25668,7 +25762,7 @@
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B179" s="83"/>
@@ -25678,7 +25772,7 @@
       <c r="F179" s="109"/>
       <c r="G179" s="102"/>
       <c r="H179" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I179" s="19" t="str">
@@ -25686,7 +25780,7 @@
         <v/>
       </c>
       <c r="J179" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M179" s="69"/>
@@ -25708,7 +25802,7 @@
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B180" s="83"/>
@@ -25718,7 +25812,7 @@
       <c r="F180" s="109"/>
       <c r="G180" s="102"/>
       <c r="H180" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I180" s="19" t="str">
@@ -25726,7 +25820,7 @@
         <v/>
       </c>
       <c r="J180" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M180" s="69"/>
@@ -25748,7 +25842,7 @@
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B181" s="83"/>
@@ -25758,7 +25852,7 @@
       <c r="F181" s="109"/>
       <c r="G181" s="102"/>
       <c r="H181" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I181" s="19" t="str">
@@ -25766,7 +25860,7 @@
         <v/>
       </c>
       <c r="J181" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M181" s="69"/>
@@ -25788,7 +25882,7 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B182" s="83"/>
@@ -25798,7 +25892,7 @@
       <c r="F182" s="109"/>
       <c r="G182" s="102"/>
       <c r="H182" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I182" s="19" t="str">
@@ -25806,7 +25900,7 @@
         <v/>
       </c>
       <c r="J182" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M182" s="69"/>
@@ -25828,7 +25922,7 @@
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B183" s="83"/>
@@ -25838,7 +25932,7 @@
       <c r="F183" s="109"/>
       <c r="G183" s="102"/>
       <c r="H183" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I183" s="19" t="str">
@@ -25846,7 +25940,7 @@
         <v/>
       </c>
       <c r="J183" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M183" s="69"/>
@@ -25868,7 +25962,7 @@
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B184" s="83"/>
@@ -25878,7 +25972,7 @@
       <c r="F184" s="109"/>
       <c r="G184" s="102"/>
       <c r="H184" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I184" s="19" t="str">
@@ -25886,7 +25980,7 @@
         <v/>
       </c>
       <c r="J184" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M184" s="69"/>
@@ -25908,7 +26002,7 @@
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B185" s="83"/>
@@ -25918,7 +26012,7 @@
       <c r="F185" s="109"/>
       <c r="G185" s="102"/>
       <c r="H185" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I185" s="19" t="str">
@@ -25926,7 +26020,7 @@
         <v/>
       </c>
       <c r="J185" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M185" s="69"/>
@@ -25948,7 +26042,7 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B186" s="83"/>
@@ -25958,7 +26052,7 @@
       <c r="F186" s="109"/>
       <c r="G186" s="102"/>
       <c r="H186" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I186" s="19" t="str">
@@ -25966,7 +26060,7 @@
         <v/>
       </c>
       <c r="J186" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M186" s="69"/>
@@ -25988,7 +26082,7 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B187" s="83"/>
@@ -25998,7 +26092,7 @@
       <c r="F187" s="109"/>
       <c r="G187" s="102"/>
       <c r="H187" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I187" s="19" t="str">
@@ -26006,7 +26100,7 @@
         <v/>
       </c>
       <c r="J187" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M187" s="69"/>
@@ -26028,7 +26122,7 @@
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B188" s="83"/>
@@ -26038,7 +26132,7 @@
       <c r="F188" s="109"/>
       <c r="G188" s="102"/>
       <c r="H188" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I188" s="19" t="str">
@@ -26046,7 +26140,7 @@
         <v/>
       </c>
       <c r="J188" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M188" s="69"/>
@@ -26068,7 +26162,7 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B189" s="83"/>
@@ -26078,7 +26172,7 @@
       <c r="F189" s="109"/>
       <c r="G189" s="102"/>
       <c r="H189" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I189" s="19" t="str">
@@ -26086,7 +26180,7 @@
         <v/>
       </c>
       <c r="J189" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M189" s="69"/>
@@ -26108,7 +26202,7 @@
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B190" s="83"/>
@@ -26118,7 +26212,7 @@
       <c r="F190" s="109"/>
       <c r="G190" s="102"/>
       <c r="H190" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I190" s="19" t="str">
@@ -26126,7 +26220,7 @@
         <v/>
       </c>
       <c r="J190" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M190" s="69"/>
@@ -26148,7 +26242,7 @@
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B191" s="83"/>
@@ -26158,7 +26252,7 @@
       <c r="F191" s="109"/>
       <c r="G191" s="102"/>
       <c r="H191" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I191" s="19" t="str">
@@ -26166,7 +26260,7 @@
         <v/>
       </c>
       <c r="J191" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M191" s="69"/>
@@ -26188,7 +26282,7 @@
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B192" s="83"/>
@@ -26198,7 +26292,7 @@
       <c r="F192" s="109"/>
       <c r="G192" s="102"/>
       <c r="H192" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I192" s="19" t="str">
@@ -26206,7 +26300,7 @@
         <v/>
       </c>
       <c r="J192" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M192" s="69"/>
@@ -26228,7 +26322,7 @@
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B193" s="83"/>
@@ -26238,7 +26332,7 @@
       <c r="F193" s="109"/>
       <c r="G193" s="102"/>
       <c r="H193" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I193" s="19" t="str">
@@ -26246,7 +26340,7 @@
         <v/>
       </c>
       <c r="J193" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M193" s="69"/>
@@ -26268,7 +26362,7 @@
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B194" s="83"/>
@@ -26278,7 +26372,7 @@
       <c r="F194" s="109"/>
       <c r="G194" s="102"/>
       <c r="H194" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I194" s="19" t="str">
@@ -26286,7 +26380,7 @@
         <v/>
       </c>
       <c r="J194" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M194" s="69"/>
@@ -26308,7 +26402,7 @@
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B195" s="83"/>
@@ -26318,7 +26412,7 @@
       <c r="F195" s="109"/>
       <c r="G195" s="102"/>
       <c r="H195" s="12" t="str">
-        <f t="shared" ref="H195:H258" ca="1" si="9">IF(B195&lt;&gt;"", IFERROR( SEARCH(INDIRECT(CELL("address")),B195), 0), "")</f>
+        <f t="shared" ref="H195:H258" ca="1" si="12">IF(B195&lt;&gt;"", IFERROR( SEARCH(INDIRECT(CELL("address")),B195), 0), "")</f>
         <v/>
       </c>
       <c r="I195" s="19" t="str">
@@ -26326,7 +26420,7 @@
         <v/>
       </c>
       <c r="J195" s="13" t="str">
-        <f t="shared" ref="J195:J258" ca="1" si="10">IFERROR(INDEX(B:B, MATCH(ROW(H193),I:I, 0)), "")</f>
+        <f t="shared" ref="J195:J258" ca="1" si="13">IFERROR(INDEX(B:B, MATCH(ROW(H193),I:I, 0)), "")</f>
         <v/>
       </c>
       <c r="M195" s="69"/>
@@ -26348,7 +26442,7 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" s="74" t="str">
-        <f t="shared" ref="A196:A259" si="11">IF(B196&lt;&gt;"", IF(A195="Index", 1, A195+1), "")</f>
+        <f t="shared" ref="A196:A259" si="14">IF(B196&lt;&gt;"", IF(A195="Index", 1, A195+1), "")</f>
         <v/>
       </c>
       <c r="B196" s="83"/>
@@ -26358,7 +26452,7 @@
       <c r="F196" s="109"/>
       <c r="G196" s="102"/>
       <c r="H196" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I196" s="19" t="str">
@@ -26366,7 +26460,7 @@
         <v/>
       </c>
       <c r="J196" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M196" s="69"/>
@@ -26388,7 +26482,7 @@
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B197" s="83"/>
@@ -26398,7 +26492,7 @@
       <c r="F197" s="109"/>
       <c r="G197" s="102"/>
       <c r="H197" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I197" s="19" t="str">
@@ -26406,7 +26500,7 @@
         <v/>
       </c>
       <c r="J197" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M197" s="69"/>
@@ -26428,7 +26522,7 @@
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B198" s="83"/>
@@ -26438,7 +26532,7 @@
       <c r="F198" s="109"/>
       <c r="G198" s="102"/>
       <c r="H198" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I198" s="19" t="str">
@@ -26446,7 +26540,7 @@
         <v/>
       </c>
       <c r="J198" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M198" s="69"/>
@@ -26468,7 +26562,7 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B199" s="83"/>
@@ -26478,7 +26572,7 @@
       <c r="F199" s="109"/>
       <c r="G199" s="102"/>
       <c r="H199" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I199" s="19" t="str">
@@ -26486,7 +26580,7 @@
         <v/>
       </c>
       <c r="J199" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M199" s="69"/>
@@ -26508,7 +26602,7 @@
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B200" s="83"/>
@@ -26518,7 +26612,7 @@
       <c r="F200" s="109"/>
       <c r="G200" s="102"/>
       <c r="H200" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I200" s="19" t="str">
@@ -26526,7 +26620,7 @@
         <v/>
       </c>
       <c r="J200" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M200" s="69"/>
@@ -26548,7 +26642,7 @@
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B201" s="83"/>
@@ -26558,7 +26652,7 @@
       <c r="F201" s="109"/>
       <c r="G201" s="102"/>
       <c r="H201" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I201" s="19" t="str">
@@ -26566,7 +26660,7 @@
         <v/>
       </c>
       <c r="J201" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M201" s="69"/>
@@ -26588,7 +26682,7 @@
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B202" s="83"/>
@@ -26598,7 +26692,7 @@
       <c r="F202" s="109"/>
       <c r="G202" s="102"/>
       <c r="H202" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I202" s="19" t="str">
@@ -26606,7 +26700,7 @@
         <v/>
       </c>
       <c r="J202" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M202" s="69"/>
@@ -26628,7 +26722,7 @@
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B203" s="83"/>
@@ -26638,7 +26732,7 @@
       <c r="F203" s="109"/>
       <c r="G203" s="102"/>
       <c r="H203" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I203" s="19" t="str">
@@ -26646,7 +26740,7 @@
         <v/>
       </c>
       <c r="J203" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M203" s="69"/>
@@ -26668,7 +26762,7 @@
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B204" s="83"/>
@@ -26678,7 +26772,7 @@
       <c r="F204" s="109"/>
       <c r="G204" s="102"/>
       <c r="H204" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I204" s="19" t="str">
@@ -26686,7 +26780,7 @@
         <v/>
       </c>
       <c r="J204" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M204" s="69"/>
@@ -26708,7 +26802,7 @@
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B205" s="83"/>
@@ -26718,7 +26812,7 @@
       <c r="F205" s="109"/>
       <c r="G205" s="102"/>
       <c r="H205" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I205" s="19" t="str">
@@ -26726,7 +26820,7 @@
         <v/>
       </c>
       <c r="J205" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M205" s="69"/>
@@ -26748,7 +26842,7 @@
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B206" s="83"/>
@@ -26758,7 +26852,7 @@
       <c r="F206" s="109"/>
       <c r="G206" s="102"/>
       <c r="H206" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I206" s="19" t="str">
@@ -26766,7 +26860,7 @@
         <v/>
       </c>
       <c r="J206" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M206" s="69"/>
@@ -26788,7 +26882,7 @@
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B207" s="83"/>
@@ -26798,7 +26892,7 @@
       <c r="F207" s="109"/>
       <c r="G207" s="102"/>
       <c r="H207" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I207" s="19" t="str">
@@ -26806,7 +26900,7 @@
         <v/>
       </c>
       <c r="J207" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M207" s="69"/>
@@ -26828,7 +26922,7 @@
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B208" s="83"/>
@@ -26838,7 +26932,7 @@
       <c r="F208" s="109"/>
       <c r="G208" s="102"/>
       <c r="H208" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I208" s="19" t="str">
@@ -26846,7 +26940,7 @@
         <v/>
       </c>
       <c r="J208" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M208" s="69"/>
@@ -26868,7 +26962,7 @@
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B209" s="83"/>
@@ -26878,7 +26972,7 @@
       <c r="F209" s="109"/>
       <c r="G209" s="102"/>
       <c r="H209" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I209" s="19" t="str">
@@ -26886,7 +26980,7 @@
         <v/>
       </c>
       <c r="J209" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M209" s="69"/>
@@ -26908,7 +27002,7 @@
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B210" s="83"/>
@@ -26918,7 +27012,7 @@
       <c r="F210" s="109"/>
       <c r="G210" s="102"/>
       <c r="H210" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I210" s="19" t="str">
@@ -26926,7 +27020,7 @@
         <v/>
       </c>
       <c r="J210" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M210" s="69"/>
@@ -26948,7 +27042,7 @@
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B211" s="83"/>
@@ -26958,7 +27052,7 @@
       <c r="F211" s="109"/>
       <c r="G211" s="102"/>
       <c r="H211" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I211" s="19" t="str">
@@ -26966,7 +27060,7 @@
         <v/>
       </c>
       <c r="J211" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M211" s="69"/>
@@ -26988,7 +27082,7 @@
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B212" s="83"/>
@@ -26998,7 +27092,7 @@
       <c r="F212" s="109"/>
       <c r="G212" s="102"/>
       <c r="H212" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I212" s="19" t="str">
@@ -27006,7 +27100,7 @@
         <v/>
       </c>
       <c r="J212" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M212" s="69"/>
@@ -27028,7 +27122,7 @@
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B213" s="83"/>
@@ -27038,7 +27132,7 @@
       <c r="F213" s="109"/>
       <c r="G213" s="102"/>
       <c r="H213" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I213" s="19" t="str">
@@ -27046,7 +27140,7 @@
         <v/>
       </c>
       <c r="J213" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M213" s="69"/>
@@ -27068,7 +27162,7 @@
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B214" s="83"/>
@@ -27078,7 +27172,7 @@
       <c r="F214" s="109"/>
       <c r="G214" s="102"/>
       <c r="H214" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I214" s="19" t="str">
@@ -27086,7 +27180,7 @@
         <v/>
       </c>
       <c r="J214" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M214" s="69"/>
@@ -27108,7 +27202,7 @@
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B215" s="83"/>
@@ -27118,7 +27212,7 @@
       <c r="F215" s="109"/>
       <c r="G215" s="102"/>
       <c r="H215" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I215" s="19" t="str">
@@ -27126,7 +27220,7 @@
         <v/>
       </c>
       <c r="J215" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M215" s="69"/>
@@ -27148,7 +27242,7 @@
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B216" s="83"/>
@@ -27158,7 +27252,7 @@
       <c r="F216" s="109"/>
       <c r="G216" s="102"/>
       <c r="H216" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I216" s="19" t="str">
@@ -27166,7 +27260,7 @@
         <v/>
       </c>
       <c r="J216" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M216" s="69"/>
@@ -27188,7 +27282,7 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B217" s="83"/>
@@ -27198,7 +27292,7 @@
       <c r="F217" s="109"/>
       <c r="G217" s="102"/>
       <c r="H217" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I217" s="19" t="str">
@@ -27206,7 +27300,7 @@
         <v/>
       </c>
       <c r="J217" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M217" s="69"/>
@@ -27228,7 +27322,7 @@
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B218" s="83"/>
@@ -27238,7 +27332,7 @@
       <c r="F218" s="109"/>
       <c r="G218" s="102"/>
       <c r="H218" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I218" s="19" t="str">
@@ -27246,7 +27340,7 @@
         <v/>
       </c>
       <c r="J218" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M218" s="69"/>
@@ -27268,7 +27362,7 @@
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A219" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B219" s="83"/>
@@ -27278,7 +27372,7 @@
       <c r="F219" s="109"/>
       <c r="G219" s="102"/>
       <c r="H219" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I219" s="19" t="str">
@@ -27286,7 +27380,7 @@
         <v/>
       </c>
       <c r="J219" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M219" s="69"/>
@@ -27308,7 +27402,7 @@
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B220" s="83"/>
@@ -27318,7 +27412,7 @@
       <c r="F220" s="109"/>
       <c r="G220" s="102"/>
       <c r="H220" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I220" s="19" t="str">
@@ -27326,7 +27420,7 @@
         <v/>
       </c>
       <c r="J220" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M220" s="69"/>
@@ -27348,7 +27442,7 @@
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B221" s="83"/>
@@ -27358,7 +27452,7 @@
       <c r="F221" s="109"/>
       <c r="G221" s="102"/>
       <c r="H221" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I221" s="19" t="str">
@@ -27366,7 +27460,7 @@
         <v/>
       </c>
       <c r="J221" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M221" s="69"/>
@@ -27388,7 +27482,7 @@
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B222" s="83"/>
@@ -27398,7 +27492,7 @@
       <c r="F222" s="109"/>
       <c r="G222" s="102"/>
       <c r="H222" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I222" s="19" t="str">
@@ -27406,7 +27500,7 @@
         <v/>
       </c>
       <c r="J222" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M222" s="69"/>
@@ -27428,7 +27522,7 @@
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B223" s="83"/>
@@ -27438,7 +27532,7 @@
       <c r="F223" s="109"/>
       <c r="G223" s="102"/>
       <c r="H223" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I223" s="19" t="str">
@@ -27446,7 +27540,7 @@
         <v/>
       </c>
       <c r="J223" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M223" s="69"/>
@@ -27468,7 +27562,7 @@
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B224" s="83"/>
@@ -27478,7 +27572,7 @@
       <c r="F224" s="109"/>
       <c r="G224" s="102"/>
       <c r="H224" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I224" s="19" t="str">
@@ -27486,7 +27580,7 @@
         <v/>
       </c>
       <c r="J224" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M224" s="69"/>
@@ -27508,7 +27602,7 @@
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A225" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B225" s="83"/>
@@ -27518,7 +27612,7 @@
       <c r="F225" s="109"/>
       <c r="G225" s="102"/>
       <c r="H225" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I225" s="19" t="str">
@@ -27526,7 +27620,7 @@
         <v/>
       </c>
       <c r="J225" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M225" s="69"/>
@@ -27548,7 +27642,7 @@
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A226" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B226" s="83"/>
@@ -27558,7 +27652,7 @@
       <c r="F226" s="109"/>
       <c r="G226" s="102"/>
       <c r="H226" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I226" s="19" t="str">
@@ -27566,7 +27660,7 @@
         <v/>
       </c>
       <c r="J226" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M226" s="69"/>
@@ -27588,7 +27682,7 @@
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A227" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B227" s="83"/>
@@ -27598,7 +27692,7 @@
       <c r="F227" s="109"/>
       <c r="G227" s="102"/>
       <c r="H227" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I227" s="19" t="str">
@@ -27606,7 +27700,7 @@
         <v/>
       </c>
       <c r="J227" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M227" s="69"/>
@@ -27628,7 +27722,7 @@
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A228" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B228" s="83"/>
@@ -27638,7 +27732,7 @@
       <c r="F228" s="109"/>
       <c r="G228" s="102"/>
       <c r="H228" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I228" s="19" t="str">
@@ -27646,7 +27740,7 @@
         <v/>
       </c>
       <c r="J228" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M228" s="69"/>
@@ -27668,7 +27762,7 @@
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A229" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B229" s="83"/>
@@ -27678,7 +27772,7 @@
       <c r="F229" s="109"/>
       <c r="G229" s="102"/>
       <c r="H229" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I229" s="19" t="str">
@@ -27686,7 +27780,7 @@
         <v/>
       </c>
       <c r="J229" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M229" s="69"/>
@@ -27708,7 +27802,7 @@
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A230" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B230" s="83"/>
@@ -27718,7 +27812,7 @@
       <c r="F230" s="109"/>
       <c r="G230" s="102"/>
       <c r="H230" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I230" s="19" t="str">
@@ -27726,7 +27820,7 @@
         <v/>
       </c>
       <c r="J230" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M230" s="69"/>
@@ -27748,7 +27842,7 @@
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A231" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B231" s="83"/>
@@ -27758,7 +27852,7 @@
       <c r="F231" s="109"/>
       <c r="G231" s="102"/>
       <c r="H231" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I231" s="19" t="str">
@@ -27766,7 +27860,7 @@
         <v/>
       </c>
       <c r="J231" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M231" s="69"/>
@@ -27788,7 +27882,7 @@
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A232" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B232" s="83"/>
@@ -27798,7 +27892,7 @@
       <c r="F232" s="109"/>
       <c r="G232" s="102"/>
       <c r="H232" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I232" s="19" t="str">
@@ -27806,7 +27900,7 @@
         <v/>
       </c>
       <c r="J232" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M232" s="69"/>
@@ -27828,7 +27922,7 @@
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A233" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B233" s="83"/>
@@ -27838,7 +27932,7 @@
       <c r="F233" s="109"/>
       <c r="G233" s="102"/>
       <c r="H233" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I233" s="19" t="str">
@@ -27846,7 +27940,7 @@
         <v/>
       </c>
       <c r="J233" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M233" s="69"/>
@@ -27868,7 +27962,7 @@
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A234" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B234" s="83"/>
@@ -27878,7 +27972,7 @@
       <c r="F234" s="109"/>
       <c r="G234" s="102"/>
       <c r="H234" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I234" s="19" t="str">
@@ -27886,7 +27980,7 @@
         <v/>
       </c>
       <c r="J234" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M234" s="69"/>
@@ -27908,7 +28002,7 @@
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A235" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B235" s="83"/>
@@ -27918,7 +28012,7 @@
       <c r="F235" s="109"/>
       <c r="G235" s="102"/>
       <c r="H235" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I235" s="19" t="str">
@@ -27926,7 +28020,7 @@
         <v/>
       </c>
       <c r="J235" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M235" s="69"/>
@@ -27948,7 +28042,7 @@
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B236" s="83"/>
@@ -27958,7 +28052,7 @@
       <c r="F236" s="109"/>
       <c r="G236" s="102"/>
       <c r="H236" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I236" s="19" t="str">
@@ -27966,7 +28060,7 @@
         <v/>
       </c>
       <c r="J236" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M236" s="69"/>
@@ -27988,7 +28082,7 @@
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B237" s="83"/>
@@ -27998,7 +28092,7 @@
       <c r="F237" s="109"/>
       <c r="G237" s="102"/>
       <c r="H237" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I237" s="19" t="str">
@@ -28006,7 +28100,7 @@
         <v/>
       </c>
       <c r="J237" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M237" s="69"/>
@@ -28028,7 +28122,7 @@
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B238" s="83"/>
@@ -28038,7 +28132,7 @@
       <c r="F238" s="109"/>
       <c r="G238" s="102"/>
       <c r="H238" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I238" s="19" t="str">
@@ -28046,7 +28140,7 @@
         <v/>
       </c>
       <c r="J238" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M238" s="69"/>
@@ -28068,7 +28162,7 @@
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A239" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B239" s="83"/>
@@ -28078,7 +28172,7 @@
       <c r="F239" s="109"/>
       <c r="G239" s="102"/>
       <c r="H239" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I239" s="19" t="str">
@@ -28086,7 +28180,7 @@
         <v/>
       </c>
       <c r="J239" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M239" s="69"/>
@@ -28108,7 +28202,7 @@
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A240" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B240" s="83"/>
@@ -28118,7 +28212,7 @@
       <c r="F240" s="109"/>
       <c r="G240" s="102"/>
       <c r="H240" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I240" s="19" t="str">
@@ -28126,7 +28220,7 @@
         <v/>
       </c>
       <c r="J240" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M240" s="69"/>
@@ -28148,7 +28242,7 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B241" s="83"/>
@@ -28158,7 +28252,7 @@
       <c r="F241" s="109"/>
       <c r="G241" s="102"/>
       <c r="H241" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I241" s="19" t="str">
@@ -28166,7 +28260,7 @@
         <v/>
       </c>
       <c r="J241" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M241" s="69"/>
@@ -28188,7 +28282,7 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B242" s="83"/>
@@ -28198,7 +28292,7 @@
       <c r="F242" s="109"/>
       <c r="G242" s="102"/>
       <c r="H242" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I242" s="19" t="str">
@@ -28206,7 +28300,7 @@
         <v/>
       </c>
       <c r="J242" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M242" s="69"/>
@@ -28228,7 +28322,7 @@
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A243" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B243" s="83"/>
@@ -28238,7 +28332,7 @@
       <c r="F243" s="109"/>
       <c r="G243" s="102"/>
       <c r="H243" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I243" s="19" t="str">
@@ -28246,7 +28340,7 @@
         <v/>
       </c>
       <c r="J243" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M243" s="69"/>
@@ -28268,7 +28362,7 @@
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A244" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B244" s="83"/>
@@ -28278,7 +28372,7 @@
       <c r="F244" s="109"/>
       <c r="G244" s="102"/>
       <c r="H244" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I244" s="19" t="str">
@@ -28286,7 +28380,7 @@
         <v/>
       </c>
       <c r="J244" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M244" s="69"/>
@@ -28308,7 +28402,7 @@
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A245" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B245" s="83"/>
@@ -28318,7 +28412,7 @@
       <c r="F245" s="109"/>
       <c r="G245" s="102"/>
       <c r="H245" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I245" s="19" t="str">
@@ -28326,7 +28420,7 @@
         <v/>
       </c>
       <c r="J245" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M245" s="69"/>
@@ -28348,7 +28442,7 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A246" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B246" s="83"/>
@@ -28358,7 +28452,7 @@
       <c r="F246" s="109"/>
       <c r="G246" s="102"/>
       <c r="H246" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I246" s="19" t="str">
@@ -28366,7 +28460,7 @@
         <v/>
       </c>
       <c r="J246" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M246" s="69"/>
@@ -28388,7 +28482,7 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A247" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B247" s="83"/>
@@ -28398,7 +28492,7 @@
       <c r="F247" s="109"/>
       <c r="G247" s="102"/>
       <c r="H247" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I247" s="19" t="str">
@@ -28406,7 +28500,7 @@
         <v/>
       </c>
       <c r="J247" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M247" s="69"/>
@@ -28428,7 +28522,7 @@
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B248" s="83"/>
@@ -28438,7 +28532,7 @@
       <c r="F248" s="109"/>
       <c r="G248" s="102"/>
       <c r="H248" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I248" s="19" t="str">
@@ -28446,7 +28540,7 @@
         <v/>
       </c>
       <c r="J248" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M248" s="69"/>
@@ -28468,7 +28562,7 @@
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A249" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B249" s="83"/>
@@ -28478,7 +28572,7 @@
       <c r="F249" s="109"/>
       <c r="G249" s="102"/>
       <c r="H249" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I249" s="19" t="str">
@@ -28486,7 +28580,7 @@
         <v/>
       </c>
       <c r="J249" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M249" s="69"/>
@@ -28508,7 +28602,7 @@
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B250" s="83"/>
@@ -28518,7 +28612,7 @@
       <c r="F250" s="109"/>
       <c r="G250" s="102"/>
       <c r="H250" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I250" s="19" t="str">
@@ -28526,7 +28620,7 @@
         <v/>
       </c>
       <c r="J250" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M250" s="69"/>
@@ -28548,7 +28642,7 @@
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A251" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B251" s="83"/>
@@ -28558,7 +28652,7 @@
       <c r="F251" s="109"/>
       <c r="G251" s="102"/>
       <c r="H251" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I251" s="19" t="str">
@@ -28566,7 +28660,7 @@
         <v/>
       </c>
       <c r="J251" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M251" s="69"/>
@@ -28588,7 +28682,7 @@
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A252" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B252" s="83"/>
@@ -28598,7 +28692,7 @@
       <c r="F252" s="109"/>
       <c r="G252" s="102"/>
       <c r="H252" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I252" s="19" t="str">
@@ -28606,7 +28700,7 @@
         <v/>
       </c>
       <c r="J252" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M252" s="69"/>
@@ -28628,7 +28722,7 @@
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A253" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B253" s="83"/>
@@ -28638,7 +28732,7 @@
       <c r="F253" s="109"/>
       <c r="G253" s="102"/>
       <c r="H253" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I253" s="19" t="str">
@@ -28646,7 +28740,7 @@
         <v/>
       </c>
       <c r="J253" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M253" s="69"/>
@@ -28668,7 +28762,7 @@
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A254" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B254" s="83"/>
@@ -28678,7 +28772,7 @@
       <c r="F254" s="109"/>
       <c r="G254" s="102"/>
       <c r="H254" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I254" s="19" t="str">
@@ -28686,7 +28780,7 @@
         <v/>
       </c>
       <c r="J254" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M254" s="69"/>
@@ -28708,7 +28802,7 @@
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A255" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B255" s="83"/>
@@ -28718,7 +28812,7 @@
       <c r="F255" s="109"/>
       <c r="G255" s="102"/>
       <c r="H255" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I255" s="19" t="str">
@@ -28726,7 +28820,7 @@
         <v/>
       </c>
       <c r="J255" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M255" s="69"/>
@@ -28748,7 +28842,7 @@
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A256" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B256" s="83"/>
@@ -28758,7 +28852,7 @@
       <c r="F256" s="109"/>
       <c r="G256" s="102"/>
       <c r="H256" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I256" s="19" t="str">
@@ -28766,7 +28860,7 @@
         <v/>
       </c>
       <c r="J256" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M256" s="69"/>
@@ -28788,7 +28882,7 @@
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A257" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B257" s="83"/>
@@ -28798,7 +28892,7 @@
       <c r="F257" s="109"/>
       <c r="G257" s="102"/>
       <c r="H257" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I257" s="19" t="str">
@@ -28806,7 +28900,7 @@
         <v/>
       </c>
       <c r="J257" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M257" s="69"/>
@@ -28828,7 +28922,7 @@
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A258" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B258" s="83"/>
@@ -28838,7 +28932,7 @@
       <c r="F258" s="109"/>
       <c r="G258" s="102"/>
       <c r="H258" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="I258" s="19" t="str">
@@ -28846,7 +28940,7 @@
         <v/>
       </c>
       <c r="J258" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M258" s="69"/>
@@ -28868,7 +28962,7 @@
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A259" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B259" s="83"/>
@@ -28878,7 +28972,7 @@
       <c r="F259" s="109"/>
       <c r="G259" s="102"/>
       <c r="H259" s="12" t="str">
-        <f t="shared" ref="H259:H300" ca="1" si="12">IF(B259&lt;&gt;"", IFERROR( SEARCH(INDIRECT(CELL("address")),B259), 0), "")</f>
+        <f t="shared" ref="H259:H300" ca="1" si="15">IF(B259&lt;&gt;"", IFERROR( SEARCH(INDIRECT(CELL("address")),B259), 0), "")</f>
         <v/>
       </c>
       <c r="I259" s="19" t="str">
@@ -28886,7 +28980,7 @@
         <v/>
       </c>
       <c r="J259" s="13" t="str">
-        <f t="shared" ref="J259:J322" ca="1" si="13">IFERROR(INDEX(B:B, MATCH(ROW(H257),I:I, 0)), "")</f>
+        <f t="shared" ref="J259:J300" ca="1" si="16">IFERROR(INDEX(B:B, MATCH(ROW(H257),I:I, 0)), "")</f>
         <v/>
       </c>
       <c r="M259" s="69"/>
@@ -28908,7 +29002,7 @@
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A260" s="74" t="str">
-        <f t="shared" ref="A260:A300" si="14">IF(B260&lt;&gt;"", IF(A259="Index", 1, A259+1), "")</f>
+        <f t="shared" ref="A260:A300" si="17">IF(B260&lt;&gt;"", IF(A259="Index", 1, A259+1), "")</f>
         <v/>
       </c>
       <c r="B260" s="83"/>
@@ -28918,7 +29012,7 @@
       <c r="F260" s="109"/>
       <c r="G260" s="102"/>
       <c r="H260" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I260" s="19" t="str">
@@ -28926,7 +29020,7 @@
         <v/>
       </c>
       <c r="J260" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M260" s="69"/>
@@ -28948,7 +29042,7 @@
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A261" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B261" s="83"/>
@@ -28958,7 +29052,7 @@
       <c r="F261" s="109"/>
       <c r="G261" s="102"/>
       <c r="H261" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I261" s="19" t="str">
@@ -28966,7 +29060,7 @@
         <v/>
       </c>
       <c r="J261" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M261" s="69"/>
@@ -28988,7 +29082,7 @@
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A262" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B262" s="83"/>
@@ -28998,7 +29092,7 @@
       <c r="F262" s="109"/>
       <c r="G262" s="102"/>
       <c r="H262" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I262" s="19" t="str">
@@ -29006,7 +29100,7 @@
         <v/>
       </c>
       <c r="J262" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M262" s="69"/>
@@ -29028,7 +29122,7 @@
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A263" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B263" s="83"/>
@@ -29038,7 +29132,7 @@
       <c r="F263" s="109"/>
       <c r="G263" s="102"/>
       <c r="H263" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I263" s="19" t="str">
@@ -29046,7 +29140,7 @@
         <v/>
       </c>
       <c r="J263" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M263" s="69"/>
@@ -29068,7 +29162,7 @@
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A264" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B264" s="83"/>
@@ -29078,7 +29172,7 @@
       <c r="F264" s="109"/>
       <c r="G264" s="102"/>
       <c r="H264" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I264" s="19" t="str">
@@ -29086,7 +29180,7 @@
         <v/>
       </c>
       <c r="J264" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M264" s="69"/>
@@ -29108,7 +29202,7 @@
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A265" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B265" s="83"/>
@@ -29118,7 +29212,7 @@
       <c r="F265" s="109"/>
       <c r="G265" s="102"/>
       <c r="H265" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I265" s="19" t="str">
@@ -29126,7 +29220,7 @@
         <v/>
       </c>
       <c r="J265" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M265" s="69"/>
@@ -29148,7 +29242,7 @@
     </row>
     <row r="266" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A266" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B266" s="83"/>
@@ -29158,7 +29252,7 @@
       <c r="F266" s="109"/>
       <c r="G266" s="102"/>
       <c r="H266" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I266" s="19" t="str">
@@ -29166,7 +29260,7 @@
         <v/>
       </c>
       <c r="J266" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M266" s="69"/>
@@ -29188,7 +29282,7 @@
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A267" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B267" s="83"/>
@@ -29198,7 +29292,7 @@
       <c r="F267" s="109"/>
       <c r="G267" s="102"/>
       <c r="H267" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I267" s="19" t="str">
@@ -29206,7 +29300,7 @@
         <v/>
       </c>
       <c r="J267" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M267" s="69"/>
@@ -29228,7 +29322,7 @@
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A268" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B268" s="83"/>
@@ -29238,7 +29332,7 @@
       <c r="F268" s="109"/>
       <c r="G268" s="102"/>
       <c r="H268" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I268" s="19" t="str">
@@ -29246,7 +29340,7 @@
         <v/>
       </c>
       <c r="J268" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M268" s="69"/>
@@ -29268,7 +29362,7 @@
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A269" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B269" s="83"/>
@@ -29278,7 +29372,7 @@
       <c r="F269" s="109"/>
       <c r="G269" s="102"/>
       <c r="H269" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I269" s="19" t="str">
@@ -29286,7 +29380,7 @@
         <v/>
       </c>
       <c r="J269" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M269" s="69"/>
@@ -29308,7 +29402,7 @@
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A270" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B270" s="83"/>
@@ -29318,7 +29412,7 @@
       <c r="F270" s="109"/>
       <c r="G270" s="102"/>
       <c r="H270" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I270" s="19" t="str">
@@ -29326,7 +29420,7 @@
         <v/>
       </c>
       <c r="J270" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M270" s="69"/>
@@ -29348,7 +29442,7 @@
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A271" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B271" s="83"/>
@@ -29358,7 +29452,7 @@
       <c r="F271" s="109"/>
       <c r="G271" s="102"/>
       <c r="H271" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I271" s="19" t="str">
@@ -29366,7 +29460,7 @@
         <v/>
       </c>
       <c r="J271" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M271" s="69"/>
@@ -29388,7 +29482,7 @@
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A272" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B272" s="83"/>
@@ -29398,7 +29492,7 @@
       <c r="F272" s="109"/>
       <c r="G272" s="102"/>
       <c r="H272" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I272" s="19" t="str">
@@ -29406,7 +29500,7 @@
         <v/>
       </c>
       <c r="J272" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M272" s="69"/>
@@ -29428,7 +29522,7 @@
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A273" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B273" s="83"/>
@@ -29438,7 +29532,7 @@
       <c r="F273" s="109"/>
       <c r="G273" s="102"/>
       <c r="H273" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I273" s="19" t="str">
@@ -29446,7 +29540,7 @@
         <v/>
       </c>
       <c r="J273" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M273" s="69"/>
@@ -29468,7 +29562,7 @@
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A274" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B274" s="83"/>
@@ -29478,7 +29572,7 @@
       <c r="F274" s="109"/>
       <c r="G274" s="102"/>
       <c r="H274" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I274" s="19" t="str">
@@ -29486,7 +29580,7 @@
         <v/>
       </c>
       <c r="J274" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M274" s="69"/>
@@ -29508,7 +29602,7 @@
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A275" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B275" s="83"/>
@@ -29518,7 +29612,7 @@
       <c r="F275" s="109"/>
       <c r="G275" s="102"/>
       <c r="H275" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I275" s="19" t="str">
@@ -29526,7 +29620,7 @@
         <v/>
       </c>
       <c r="J275" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M275" s="69"/>
@@ -29548,7 +29642,7 @@
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A276" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B276" s="83"/>
@@ -29558,7 +29652,7 @@
       <c r="F276" s="109"/>
       <c r="G276" s="102"/>
       <c r="H276" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I276" s="19" t="str">
@@ -29566,7 +29660,7 @@
         <v/>
       </c>
       <c r="J276" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M276" s="69"/>
@@ -29588,7 +29682,7 @@
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A277" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B277" s="83"/>
@@ -29598,7 +29692,7 @@
       <c r="F277" s="109"/>
       <c r="G277" s="102"/>
       <c r="H277" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I277" s="19" t="str">
@@ -29606,7 +29700,7 @@
         <v/>
       </c>
       <c r="J277" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M277" s="69"/>
@@ -29628,7 +29722,7 @@
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A278" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B278" s="83"/>
@@ -29638,7 +29732,7 @@
       <c r="F278" s="109"/>
       <c r="G278" s="102"/>
       <c r="H278" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I278" s="19" t="str">
@@ -29646,7 +29740,7 @@
         <v/>
       </c>
       <c r="J278" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M278" s="69"/>
@@ -29668,7 +29762,7 @@
     </row>
     <row r="279" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A279" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B279" s="83"/>
@@ -29678,7 +29772,7 @@
       <c r="F279" s="109"/>
       <c r="G279" s="102"/>
       <c r="H279" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I279" s="19" t="str">
@@ -29686,7 +29780,7 @@
         <v/>
       </c>
       <c r="J279" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M279" s="69"/>
@@ -29708,7 +29802,7 @@
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A280" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B280" s="83"/>
@@ -29718,7 +29812,7 @@
       <c r="F280" s="109"/>
       <c r="G280" s="102"/>
       <c r="H280" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I280" s="19" t="str">
@@ -29726,7 +29820,7 @@
         <v/>
       </c>
       <c r="J280" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M280" s="69"/>
@@ -29748,7 +29842,7 @@
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A281" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B281" s="83"/>
@@ -29758,7 +29852,7 @@
       <c r="F281" s="109"/>
       <c r="G281" s="102"/>
       <c r="H281" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I281" s="19" t="str">
@@ -29766,7 +29860,7 @@
         <v/>
       </c>
       <c r="J281" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M281" s="69"/>
@@ -29788,7 +29882,7 @@
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A282" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B282" s="83"/>
@@ -29798,7 +29892,7 @@
       <c r="F282" s="109"/>
       <c r="G282" s="102"/>
       <c r="H282" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I282" s="19" t="str">
@@ -29806,7 +29900,7 @@
         <v/>
       </c>
       <c r="J282" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M282" s="69"/>
@@ -29828,7 +29922,7 @@
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A283" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B283" s="83"/>
@@ -29838,7 +29932,7 @@
       <c r="F283" s="109"/>
       <c r="G283" s="102"/>
       <c r="H283" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I283" s="19" t="str">
@@ -29846,7 +29940,7 @@
         <v/>
       </c>
       <c r="J283" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M283" s="69"/>
@@ -29868,7 +29962,7 @@
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A284" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B284" s="83"/>
@@ -29878,7 +29972,7 @@
       <c r="F284" s="109"/>
       <c r="G284" s="102"/>
       <c r="H284" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I284" s="19" t="str">
@@ -29886,7 +29980,7 @@
         <v/>
       </c>
       <c r="J284" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M284" s="69"/>
@@ -29908,7 +30002,7 @@
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A285" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B285" s="83"/>
@@ -29918,7 +30012,7 @@
       <c r="F285" s="109"/>
       <c r="G285" s="102"/>
       <c r="H285" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I285" s="19" t="str">
@@ -29926,7 +30020,7 @@
         <v/>
       </c>
       <c r="J285" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M285" s="69"/>
@@ -29948,7 +30042,7 @@
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A286" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B286" s="83"/>
@@ -29958,7 +30052,7 @@
       <c r="F286" s="109"/>
       <c r="G286" s="102"/>
       <c r="H286" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I286" s="19" t="str">
@@ -29966,7 +30060,7 @@
         <v/>
       </c>
       <c r="J286" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M286" s="69"/>
@@ -29988,7 +30082,7 @@
     </row>
     <row r="287" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A287" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B287" s="83"/>
@@ -29998,7 +30092,7 @@
       <c r="F287" s="109"/>
       <c r="G287" s="102"/>
       <c r="H287" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I287" s="19" t="str">
@@ -30006,7 +30100,7 @@
         <v/>
       </c>
       <c r="J287" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M287" s="69"/>
@@ -30028,7 +30122,7 @@
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A288" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B288" s="83"/>
@@ -30038,7 +30132,7 @@
       <c r="F288" s="109"/>
       <c r="G288" s="102"/>
       <c r="H288" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I288" s="19" t="str">
@@ -30046,7 +30140,7 @@
         <v/>
       </c>
       <c r="J288" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M288" s="69"/>
@@ -30068,7 +30162,7 @@
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A289" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B289" s="83"/>
@@ -30078,7 +30172,7 @@
       <c r="F289" s="109"/>
       <c r="G289" s="102"/>
       <c r="H289" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I289" s="19" t="str">
@@ -30086,7 +30180,7 @@
         <v/>
       </c>
       <c r="J289" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M289" s="69"/>
@@ -30108,7 +30202,7 @@
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A290" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B290" s="83"/>
@@ -30118,7 +30212,7 @@
       <c r="F290" s="109"/>
       <c r="G290" s="102"/>
       <c r="H290" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I290" s="19" t="str">
@@ -30126,7 +30220,7 @@
         <v/>
       </c>
       <c r="J290" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M290" s="69"/>
@@ -30148,7 +30242,7 @@
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A291" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B291" s="83"/>
@@ -30158,7 +30252,7 @@
       <c r="F291" s="109"/>
       <c r="G291" s="102"/>
       <c r="H291" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I291" s="19" t="str">
@@ -30166,7 +30260,7 @@
         <v/>
       </c>
       <c r="J291" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M291" s="69"/>
@@ -30188,7 +30282,7 @@
     </row>
     <row r="292" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A292" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B292" s="83"/>
@@ -30198,7 +30292,7 @@
       <c r="F292" s="109"/>
       <c r="G292" s="102"/>
       <c r="H292" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I292" s="19" t="str">
@@ -30206,7 +30300,7 @@
         <v/>
       </c>
       <c r="J292" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M292" s="69"/>
@@ -30228,7 +30322,7 @@
     </row>
     <row r="293" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A293" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B293" s="83"/>
@@ -30238,7 +30332,7 @@
       <c r="F293" s="109"/>
       <c r="G293" s="102"/>
       <c r="H293" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I293" s="19" t="str">
@@ -30246,7 +30340,7 @@
         <v/>
       </c>
       <c r="J293" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M293" s="69"/>
@@ -30268,7 +30362,7 @@
     </row>
     <row r="294" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A294" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B294" s="83"/>
@@ -30278,7 +30372,7 @@
       <c r="F294" s="109"/>
       <c r="G294" s="102"/>
       <c r="H294" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I294" s="19" t="str">
@@ -30286,7 +30380,7 @@
         <v/>
       </c>
       <c r="J294" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M294" s="69"/>
@@ -30308,7 +30402,7 @@
     </row>
     <row r="295" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A295" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B295" s="83"/>
@@ -30318,7 +30412,7 @@
       <c r="F295" s="109"/>
       <c r="G295" s="102"/>
       <c r="H295" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I295" s="19" t="str">
@@ -30326,7 +30420,7 @@
         <v/>
       </c>
       <c r="J295" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M295" s="69"/>
@@ -30348,7 +30442,7 @@
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A296" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B296" s="83"/>
@@ -30358,7 +30452,7 @@
       <c r="F296" s="109"/>
       <c r="G296" s="102"/>
       <c r="H296" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I296" s="19" t="str">
@@ -30366,7 +30460,7 @@
         <v/>
       </c>
       <c r="J296" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M296" s="69"/>
@@ -30388,7 +30482,7 @@
     </row>
     <row r="297" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A297" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B297" s="83"/>
@@ -30398,7 +30492,7 @@
       <c r="F297" s="109"/>
       <c r="G297" s="102"/>
       <c r="H297" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I297" s="19" t="str">
@@ -30406,7 +30500,7 @@
         <v/>
       </c>
       <c r="J297" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M297" s="69"/>
@@ -30428,7 +30522,7 @@
     </row>
     <row r="298" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A298" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B298" s="83"/>
@@ -30438,7 +30532,7 @@
       <c r="F298" s="109"/>
       <c r="G298" s="102"/>
       <c r="H298" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I298" s="19" t="str">
@@ -30446,7 +30540,7 @@
         <v/>
       </c>
       <c r="J298" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M298" s="69"/>
@@ -30468,7 +30562,7 @@
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A299" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B299" s="83"/>
@@ -30478,7 +30572,7 @@
       <c r="F299" s="109"/>
       <c r="G299" s="102"/>
       <c r="H299" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I299" s="19" t="str">
@@ -30486,7 +30580,7 @@
         <v/>
       </c>
       <c r="J299" s="13" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M299" s="69"/>
@@ -30508,7 +30602,7 @@
     </row>
     <row r="300" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="75" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B300" s="106"/>
@@ -30518,7 +30612,7 @@
       <c r="F300" s="110"/>
       <c r="G300" s="103"/>
       <c r="H300" s="14" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="I300" s="20" t="str">
@@ -30526,7 +30620,7 @@
         <v/>
       </c>
       <c r="J300" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M300" s="69"/>
@@ -30588,7 +30682,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A300">
-    <cfRule type="notContainsBlanks" dxfId="50" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30640,12 +30734,12 @@
       <c r="G1" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="124" t="s">
+      <c r="H1" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="126"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="129"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
@@ -30671,19 +30765,19 @@
       <c r="B2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="125" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="145" t="s">
+      <c r="E2" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="126" t="s">
         <v>140</v>
       </c>
       <c r="H2" s="36" t="s">
@@ -39097,7 +39191,7 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A300">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="2">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39119,7 +39213,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39206,17 +39300,17 @@
         <v>51</v>
       </c>
       <c r="E3" s="112" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="F3" s="113" t="str">
         <f>IF(E3&lt;&gt;"", VLOOKUP(E3, '02. META-Areas'!$B$3:$C$300, 2, FALSE), "")</f>
-        <v>South</v>
+        <v>Far-North</v>
       </c>
       <c r="G3" s="67">
         <v>28</v>
       </c>
       <c r="H3" s="67">
-        <v>18</v>
+        <v>2500</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -50660,7 +50754,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="notContainsBlanks" dxfId="48" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50696,7 +50790,7 @@
   <dimension ref="A1:Z281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50706,7 +50800,9 @@
     <col min="5" max="5" width="3.5703125" style="123" customWidth="1"/>
     <col min="6" max="7" width="13.5703125" style="123" customWidth="1"/>
     <col min="8" max="8" width="3.5703125" style="123" customWidth="1"/>
-    <col min="9" max="26" width="13.5703125" style="123" customWidth="1"/>
+    <col min="9" max="10" width="13.5703125" style="123" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="123" customWidth="1"/>
+    <col min="12" max="26" width="13.5703125" style="123" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="123"/>
   </cols>
   <sheetData>
@@ -50739,71 +50835,76 @@
       <c r="Z1" s="122"/>
     </row>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="133"/>
-      <c r="B2" s="131" t="str">
+      <c r="A2" s="124"/>
+      <c r="B2" s="152" t="str">
         <f>"Rock Lobster Season:  " &amp; '11. Quotas'!$D$1 &amp; "/" &amp; RIGHT('11. Quotas'!$D$1+1, 2)</f>
         <v>Rock Lobster Season:  2024/25</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
       <c r="E2" s="122"/>
-      <c r="F2" s="158" t="s">
+      <c r="F2" s="134" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="164" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="165"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133"/>
-      <c r="B3" s="128" t="str">
+      <c r="A3" s="124"/>
+      <c r="B3" s="155" t="str">
         <f>"   ( 1 Nov " &amp; '11. Quotas'!$D$1 &amp; " - 30 Apr " &amp; '11. Quotas'!$D$1+1 &amp; " )"</f>
         <v xml:space="preserve">   ( 1 Nov 2024 - 30 Apr 2025 )</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="130"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="122"/>
-      <c r="F3" s="160" t="str">
+      <c r="F3" s="136" t="str">
         <f>IF(TEXT(MAX('12. Landings'!$B$3:$B$820), "dd MMMM yyyy")="00 January 1900", "No DATE Data FOUND !!!", TEXT(MAX('12. Landings'!$B$3:$B$820), "dd MMMM yyyy"))</f>
         <v>25 February 2024</v>
       </c>
-      <c r="G3" s="161"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="133"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="162">
+        <f>IF($F$6=0, " - - - ", IF($F$6=" - - - ", " - - - ", VLOOKUP($B$6, '11. Quotas'!$B$3:$G$300, 3, FALSE)))</f>
+        <v>250</v>
+      </c>
+      <c r="J3" s="163"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
     </row>
     <row r="4" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="122"/>
@@ -50835,21 +50936,21 @@
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="122"/>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="122"/>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="144"/>
+      <c r="G5" s="159"/>
       <c r="H5" s="122"/>
-      <c r="I5" s="152" t="s">
-        <v>189</v>
-      </c>
-      <c r="J5" s="153"/>
+      <c r="I5" s="164" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="165"/>
       <c r="K5" s="122"/>
       <c r="L5" s="122"/>
       <c r="M5" s="122"/>
@@ -50869,23 +50970,23 @@
     </row>
     <row r="6" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="122"/>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
       <c r="E6" s="122"/>
-      <c r="F6" s="150">
+      <c r="F6" s="169">
         <f>IF($B$6="", " - - - ", _xlfn.IFNA(VLOOKUP($B$6, '11. Quotas'!$B$3:$G$300, 2, FALSE), " - - - "))</f>
         <v>4000</v>
       </c>
-      <c r="G6" s="151"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="122"/>
-      <c r="I6" s="156" t="str">
-        <f>IF($F$6=" - - - ", " - - - ", IF($F$6=0, " - - - ", IF((F9/F6)*100&gt;99, ROUND((F9/F6)*100, 0), IF((F9/F6)*100&gt;10,ROUND((F9/F6)*100, 1), ROUND((F9/F6)*100, 2))) &amp; " %"))</f>
-        <v>0.45 %</v>
-      </c>
-      <c r="J6" s="157"/>
+      <c r="I6" s="162" t="str">
+        <f>IF($F$6=0, " - - - ", IF($F$6=" - - - ", " - - - ", TEXT(SUMIFS('12. Landings'!$H$3:$H$820, '12. Landings'!$C$3:$C$820, '22. RH Stats'!$B$6, '12. Landings'!$F$3:$F$820, '02. META-Areas'!$N$1), "#,##0"))&amp; " kg")</f>
+        <v>2,500 kg</v>
+      </c>
+      <c r="J6" s="163"/>
       <c r="K6" s="122"/>
       <c r="L6" s="122"/>
       <c r="M6" s="122"/>
@@ -50905,9 +51006,9 @@
     </row>
     <row r="7" spans="1:26" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="122"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="139"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
       <c r="E7" s="122"/>
       <c r="F7" s="122"/>
       <c r="G7" s="122"/>
@@ -50933,17 +51034,17 @@
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="122"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="139"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
       <c r="E8" s="122"/>
-      <c r="F8" s="154" t="s">
+      <c r="F8" s="160" t="s">
         <v>190</v>
       </c>
-      <c r="G8" s="155"/>
+      <c r="G8" s="161"/>
       <c r="H8" s="122"/>
       <c r="I8" s="164" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J8" s="165"/>
       <c r="K8" s="122"/>
@@ -50965,20 +51066,17 @@
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="122"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
       <c r="E9" s="122"/>
-      <c r="F9" s="150">
-        <f>IF(F6=0, " - - - ", IF(F6=" - - - ", " - - - ", SUMIFS('12. Landings'!$H$3:$H$820, '12. Landings'!$C$3:$C$820, '22. RH Stats'!$B$6)))</f>
-        <v>18</v>
-      </c>
-      <c r="G9" s="151"/>
+      <c r="F9" s="162">
+        <f>IF($F$6=0, " - - - ", IF($F$6=" - - - ", " - - - ", SUMIFS('12. Landings'!$H$3:$H$820, '12. Landings'!$C$3:$C$820, '22. RH Stats'!$B$6)))</f>
+        <v>2500</v>
+      </c>
+      <c r="G9" s="163"/>
       <c r="H9" s="122"/>
-      <c r="I9" s="162" t="str">
-        <f>IF($F$6=" - - - ", " - - - ", IF($F$6=0, " - - - ", IF((F12/F9)*100&gt;99, ROUND((F12/F9)*100, 0), IF((F12/F9)*100&gt;10,ROUND((F12/F9)*100, 1), ROUND((F12/F9)*100, 2))) &amp; " %"))</f>
-        <v>0 %</v>
-      </c>
+      <c r="I9" s="162"/>
       <c r="J9" s="163"/>
       <c r="K9" s="122"/>
       <c r="L9" s="122"/>
@@ -50997,7 +51095,7 @@
       <c r="Y9" s="122"/>
       <c r="Z9" s="122"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="122"/>
       <c r="B10" s="122"/>
       <c r="C10" s="122"/>
@@ -51031,8 +51129,10 @@
       <c r="C11" s="122"/>
       <c r="D11" s="122"/>
       <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="F11" s="130" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="131"/>
       <c r="H11" s="122"/>
       <c r="I11" s="122"/>
       <c r="J11" s="122"/>
@@ -51053,14 +51153,17 @@
       <c r="Y11" s="122"/>
       <c r="Z11" s="122"/>
     </row>
-    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="122"/>
       <c r="B12" s="122"/>
       <c r="C12" s="122"/>
       <c r="D12" s="122"/>
       <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
+      <c r="F12" s="132" t="str">
+        <f>IF($F$6=" - - - ", " - - - ", IF($F$6=0, " - - - ", IF((F9/F6)*100&gt;99, ROUND((F9/F6)*100, 0), IF((F9/F6)*100&gt;10,ROUND((F9/F6)*100, 1), ROUND((F9/F6)*100, 2))) &amp; " %"))</f>
+        <v>62.5 %</v>
+      </c>
+      <c r="G12" s="133"/>
       <c r="H12" s="122"/>
       <c r="I12" s="122"/>
       <c r="J12" s="122"/>
@@ -51081,7 +51184,7 @@
       <c r="Y12" s="122"/>
       <c r="Z12" s="122"/>
     </row>
-    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="122"/>
       <c r="B13" s="122"/>
       <c r="C13" s="122"/>
@@ -51115,11 +51218,15 @@
       <c r="C14" s="122"/>
       <c r="D14" s="122"/>
       <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
+      <c r="F14" s="138" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="139"/>
       <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
+      <c r="I14" s="164" t="s">
+        <v>195</v>
+      </c>
+      <c r="J14" s="165"/>
       <c r="K14" s="122"/>
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
@@ -51137,17 +51244,20 @@
       <c r="Y14" s="122"/>
       <c r="Z14" s="122"/>
     </row>
-    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="122"/>
       <c r="B15" s="122"/>
       <c r="C15" s="122"/>
       <c r="D15" s="122"/>
       <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
+      <c r="F15" s="166" t="str">
+        <f>IF($F$6=" - - - ", " - - - ", IF($F$6=0, " - - - ", IF($F$9&gt;$F$6, IF((($F$9-$F$6)/$F$6)*100&gt;99, ROUND((($F$9-$F$6)/$F$6)*100, 0), IF((($F$9-$F$6)/$F$6)*100&gt;10,ROUND((($F$9-$F$6)/$F$6)*100, 1), ROUND((($F$9-$F$6)/$F$6)*100, 2))) &amp; " %", "0.00 %")))</f>
+        <v>0.00 %</v>
+      </c>
+      <c r="G15" s="167"/>
       <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="163"/>
       <c r="K15" s="122"/>
       <c r="L15" s="122"/>
       <c r="M15" s="122"/>
@@ -58614,12 +58724,14 @@
       <c r="Z281" s="122"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="22">
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D9"/>
@@ -58629,48 +58741,98 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:G6">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" priority="22" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>" - - - "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="greaterThanOrEqual">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="cellIs" priority="7" operator="equal">
+    <cfRule type="cellIs" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
       <formula>" - - - "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:G12">
+    <cfRule type="cellIs" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+      <formula>" - - - "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:G15">
+    <cfRule type="cellIs" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>" - - - "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J6">
-    <cfRule type="cellIs" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>" - - - "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:J3">
+    <cfRule type="cellIs" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+      <formula>" - - - "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:J9">
+    <cfRule type="cellIs" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+      <formula>" - - - "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:J15">
     <cfRule type="cellIs" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>" - - - "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Landings/LANDINGS_Rock_Lobster_(Jasus_lalandii).xlsx
+++ b/Landings/LANDINGS_Rock_Lobster_(Jasus_lalandii).xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="198">
   <si>
     <t>Index</t>
   </si>
@@ -628,10 +628,10 @@
     <t>Over-Catch FAR-NORTH</t>
   </si>
   <si>
-    <t>Quota FAR-NORTH (kg)</t>
+    <t xml:space="preserve">ZONES: </t>
   </si>
   <si>
-    <t xml:space="preserve">Units: </t>
+    <t>Quota FAR-NORTH</t>
   </si>
 </sst>
 </file>
@@ -1516,6 +1516,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1528,34 +1531,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1624,16 +1609,10 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1642,13 +1621,34 @@
     <xf numFmtId="37" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1656,7 +1656,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -1726,290 +1726,11 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color theme="1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -2066,14 +1787,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10198,7 +9940,7 @@
     <sortCondition ref="B2:B31"/>
   </sortState>
   <conditionalFormatting sqref="A3:A300">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18383,7 +18125,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A300">
-    <cfRule type="notContainsBlanks" dxfId="41" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18401,8 +18143,8 @@
   <dimension ref="A1:AB301"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18437,22 +18179,22 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="168" t="s">
-        <v>197</v>
-      </c>
-      <c r="N1" s="168" t="s">
+      <c r="M1" s="127" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="O1" s="168" t="s">
+      <c r="O1" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="P1" s="168" t="s">
+      <c r="P1" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="Q1" s="168" t="s">
+      <c r="Q1" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="R1" s="168" t="s">
+      <c r="R1" s="127" t="s">
         <v>167</v>
       </c>
       <c r="S1" s="4"/>
@@ -18501,12 +18243,8 @@
       <c r="L2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="N2" s="111" t="s">
-        <v>166</v>
-      </c>
+      <c r="M2" s="65"/>
+      <c r="N2" s="111"/>
       <c r="O2" s="111"/>
       <c r="P2" s="111"/>
       <c r="Q2" s="111"/>
@@ -30682,7 +30420,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A300">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30693,6 +30431,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:AB301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30734,12 +30475,12 @@
       <c r="G1" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="130"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
@@ -39191,7 +38932,7 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A300">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="2">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39209,11 +38950,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:AA820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39307,10 +39051,11 @@
         <v>Far-North</v>
       </c>
       <c r="G3" s="67">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H3" s="67">
-        <v>2500</v>
+        <f>G3*65</f>
+        <v>195</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -50754,7 +50499,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50790,7 +50535,7 @@
   <dimension ref="A1:Z281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50836,22 +50581,22 @@
     </row>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="124"/>
-      <c r="B2" s="152" t="str">
+      <c r="B2" s="147" t="str">
         <f>"Rock Lobster Season:  " &amp; '11. Quotas'!$D$1 &amp; "/" &amp; RIGHT('11. Quotas'!$D$1+1, 2)</f>
         <v>Rock Lobster Season:  2024/25</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="122"/>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="165" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="135"/>
+      <c r="G2" s="166"/>
       <c r="H2" s="124"/>
-      <c r="I2" s="164" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="165"/>
+      <c r="I2" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="134"/>
       <c r="K2" s="124"/>
       <c r="L2" s="124"/>
       <c r="M2" s="124"/>
@@ -50871,24 +50616,24 @@
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="124"/>
-      <c r="B3" s="155" t="str">
+      <c r="B3" s="150" t="str">
         <f>"   ( 1 Nov " &amp; '11. Quotas'!$D$1 &amp; " - 30 Apr " &amp; '11. Quotas'!$D$1+1 &amp; " )"</f>
         <v xml:space="preserve">   ( 1 Nov 2024 - 30 Apr 2025 )</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
       <c r="E3" s="122"/>
-      <c r="F3" s="136" t="str">
+      <c r="F3" s="167" t="str">
         <f>IF(TEXT(MAX('12. Landings'!$B$3:$B$820), "dd MMMM yyyy")="00 January 1900", "No DATE Data FOUND !!!", TEXT(MAX('12. Landings'!$B$3:$B$820), "dd MMMM yyyy"))</f>
         <v>25 February 2024</v>
       </c>
-      <c r="G3" s="137"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="124"/>
-      <c r="I3" s="162">
-        <f>IF($F$6=0, " - - - ", IF($F$6=" - - - ", " - - - ", VLOOKUP($B$6, '11. Quotas'!$B$3:$G$300, 3, FALSE)))</f>
-        <v>250</v>
-      </c>
-      <c r="J3" s="163"/>
+      <c r="I3" s="131" t="str">
+        <f>IF($F$6=0, " - - - ", IF($F$6=" - - - ", " - - - ", ROUND(VLOOKUP($B$6, '11. Quotas'!$B$3:$G$300, 3, FALSE), 0))) &amp; " kg   ( " &amp; (ROUND(VLOOKUP($B$6, '11. Quotas'!$B$3:$G$300, 3, FALSE), 0)/$F$6)*100 &amp; " % )"</f>
+        <v>250 kg   ( 6.25 % )</v>
+      </c>
+      <c r="J3" s="132"/>
       <c r="K3" s="124"/>
       <c r="L3" s="124"/>
       <c r="M3" s="124"/>
@@ -50936,21 +50681,21 @@
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="122"/>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="122"/>
-      <c r="F5" s="158" t="s">
+      <c r="F5" s="153" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="159"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="122"/>
-      <c r="I5" s="164" t="s">
+      <c r="I5" s="133" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="165"/>
+      <c r="J5" s="134"/>
       <c r="K5" s="122"/>
       <c r="L5" s="122"/>
       <c r="M5" s="122"/>
@@ -50970,23 +50715,23 @@
     </row>
     <row r="6" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="122"/>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="145"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="140"/>
       <c r="E6" s="122"/>
-      <c r="F6" s="169">
+      <c r="F6" s="157">
         <f>IF($B$6="", " - - - ", _xlfn.IFNA(VLOOKUP($B$6, '11. Quotas'!$B$3:$G$300, 2, FALSE), " - - - "))</f>
         <v>4000</v>
       </c>
-      <c r="G6" s="170"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="122"/>
-      <c r="I6" s="162" t="str">
+      <c r="I6" s="131" t="str">
         <f>IF($F$6=0, " - - - ", IF($F$6=" - - - ", " - - - ", TEXT(SUMIFS('12. Landings'!$H$3:$H$820, '12. Landings'!$C$3:$C$820, '22. RH Stats'!$B$6, '12. Landings'!$F$3:$F$820, '02. META-Areas'!$N$1), "#,##0"))&amp; " kg")</f>
-        <v>2,500 kg</v>
-      </c>
-      <c r="J6" s="163"/>
+        <v>195 kg</v>
+      </c>
+      <c r="J6" s="132"/>
       <c r="K6" s="122"/>
       <c r="L6" s="122"/>
       <c r="M6" s="122"/>
@@ -51006,9 +50751,9 @@
     </row>
     <row r="7" spans="1:26" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="122"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="143"/>
       <c r="E7" s="122"/>
       <c r="F7" s="122"/>
       <c r="G7" s="122"/>
@@ -51034,19 +50779,19 @@
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="122"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143"/>
       <c r="E8" s="122"/>
-      <c r="F8" s="160" t="s">
+      <c r="F8" s="155" t="s">
         <v>190</v>
       </c>
-      <c r="G8" s="161"/>
+      <c r="G8" s="156"/>
       <c r="H8" s="122"/>
-      <c r="I8" s="164" t="s">
+      <c r="I8" s="133" t="s">
         <v>194</v>
       </c>
-      <c r="J8" s="165"/>
+      <c r="J8" s="134"/>
       <c r="K8" s="122"/>
       <c r="L8" s="122"/>
       <c r="M8" s="122"/>
@@ -51066,18 +50811,21 @@
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="122"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
       <c r="E9" s="122"/>
-      <c r="F9" s="162">
+      <c r="F9" s="131">
         <f>IF($F$6=0, " - - - ", IF($F$6=" - - - ", " - - - ", SUMIFS('12. Landings'!$H$3:$H$820, '12. Landings'!$C$3:$C$820, '22. RH Stats'!$B$6)))</f>
-        <v>2500</v>
-      </c>
-      <c r="G9" s="163"/>
+        <v>195</v>
+      </c>
+      <c r="G9" s="132"/>
       <c r="H9" s="122"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="163"/>
+      <c r="I9" s="131" t="str">
+        <f>IF($F$6=0, " - - - ", IF($F$6=" - - - ", " - - - ", ROUND(VLOOKUP($B$6, '11. Quotas'!$B$3:$G$300, 3, FALSE), 0))) - SUMIFS('12. Landings'!$H$3:$H$820, '12. Landings'!$C$3:$C$820, '22. RH Stats'!$B$6, '12. Landings'!$F$3:$F$820, '02. META-Areas'!$N$1) &amp; " kg"</f>
+        <v>55 kg</v>
+      </c>
+      <c r="J9" s="132"/>
       <c r="K9" s="122"/>
       <c r="L9" s="122"/>
       <c r="M9" s="122"/>
@@ -51129,10 +50877,10 @@
       <c r="C11" s="122"/>
       <c r="D11" s="122"/>
       <c r="E11" s="122"/>
-      <c r="F11" s="130" t="s">
+      <c r="F11" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="131"/>
+      <c r="G11" s="162"/>
       <c r="H11" s="122"/>
       <c r="I11" s="122"/>
       <c r="J11" s="122"/>
@@ -51159,11 +50907,11 @@
       <c r="C12" s="122"/>
       <c r="D12" s="122"/>
       <c r="E12" s="122"/>
-      <c r="F12" s="132" t="str">
+      <c r="F12" s="163" t="str">
         <f>IF($F$6=" - - - ", " - - - ", IF($F$6=0, " - - - ", IF((F9/F6)*100&gt;99, ROUND((F9/F6)*100, 0), IF((F9/F6)*100&gt;10,ROUND((F9/F6)*100, 1), ROUND((F9/F6)*100, 2))) &amp; " %"))</f>
-        <v>62.5 %</v>
-      </c>
-      <c r="G12" s="133"/>
+        <v>4.88 %</v>
+      </c>
+      <c r="G12" s="164"/>
       <c r="H12" s="122"/>
       <c r="I12" s="122"/>
       <c r="J12" s="122"/>
@@ -51218,15 +50966,15 @@
       <c r="C14" s="122"/>
       <c r="D14" s="122"/>
       <c r="E14" s="122"/>
-      <c r="F14" s="138" t="s">
+      <c r="F14" s="169" t="s">
         <v>192</v>
       </c>
-      <c r="G14" s="139"/>
+      <c r="G14" s="170"/>
       <c r="H14" s="122"/>
-      <c r="I14" s="164" t="s">
+      <c r="I14" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="J14" s="165"/>
+      <c r="J14" s="134"/>
       <c r="K14" s="122"/>
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
@@ -51250,14 +50998,14 @@
       <c r="C15" s="122"/>
       <c r="D15" s="122"/>
       <c r="E15" s="122"/>
-      <c r="F15" s="166" t="str">
+      <c r="F15" s="159" t="str">
         <f>IF($F$6=" - - - ", " - - - ", IF($F$6=0, " - - - ", IF($F$9&gt;$F$6, IF((($F$9-$F$6)/$F$6)*100&gt;99, ROUND((($F$9-$F$6)/$F$6)*100, 0), IF((($F$9-$F$6)/$F$6)*100&gt;10,ROUND((($F$9-$F$6)/$F$6)*100, 1), ROUND((($F$9-$F$6)/$F$6)*100, 2))) &amp; " %", "0.00 %")))</f>
         <v>0.00 %</v>
       </c>
-      <c r="G15" s="167"/>
+      <c r="G15" s="160"/>
       <c r="H15" s="122"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="163"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="132"/>
       <c r="K15" s="122"/>
       <c r="L15" s="122"/>
       <c r="M15" s="122"/>
@@ -58725,11 +58473,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I8:J8"/>
@@ -58741,21 +58490,20 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:G6">
     <cfRule type="cellIs" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>" - - - "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58763,10 +58511,10 @@
     <cfRule type="cellIs" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>" - - - "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58774,10 +58522,10 @@
     <cfRule type="cellIs" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>" - - - "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58785,10 +58533,10 @@
     <cfRule type="cellIs" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>" - - - "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58796,10 +58544,10 @@
     <cfRule type="cellIs" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>" - - - "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58807,10 +58555,10 @@
     <cfRule type="cellIs" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>" - - - "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58818,10 +58566,10 @@
     <cfRule type="cellIs" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>" - - - "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58829,14 +58577,14 @@
     <cfRule type="cellIs" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>" - - - "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B6:D9">
       <formula1>DDList_META_SRL_RightHolders</formula1>
     </dataValidation>
